--- a/notebooks/ITPR1/input/ITPR1_GLSP_individuals.xlsx
+++ b/notebooks/ITPR1/input/ITPR1_GLSP_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/ITPR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F1A705-FCC8-9A4F-B23C-BDE9CF1C2453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB2D782-117D-4F4B-A2A1-A5F77D304604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19280" yWindow="500" windowWidth="43040" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="5060" windowWidth="43040" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITPR1_GillespieSyn_05222024" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="422">
   <si>
     <t>PMID</t>
   </si>
@@ -1578,7 +1578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1592,7 +1592,7 @@
     <col min="8" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
     <col min="12" max="12" width="26.5" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" customWidth="1"/>
     <col min="14" max="14" width="15.33203125" customWidth="1"/>
@@ -2737,6 +2737,9 @@
       <c r="Q3" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="S3" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="T3" s="2" t="s">
         <v>355</v>
       </c>
@@ -2832,6 +2835,9 @@
       </c>
       <c r="Q4" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>355</v>
@@ -2912,9 +2918,11 @@
         <v>371</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
         <v>353</v>
       </c>
@@ -2923,6 +2931,9 @@
       </c>
       <c r="Q5" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>355</v>
@@ -2948,7 +2959,7 @@
       <c r="DG5" s="2"/>
       <c r="DL5" s="2"/>
       <c r="DM5" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="DQ5" s="2"/>
       <c r="DS5" s="2"/>
@@ -2999,7 +3010,9 @@
       <c r="L6" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="N6" s="2" t="s">
         <v>383</v>
       </c>
@@ -3011,6 +3024,9 @@
       </c>
       <c r="Q6" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>363</v>
@@ -3125,7 +3141,9 @@
       <c r="L7" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="N7" s="2" t="s">
         <v>363</v>
       </c>
@@ -3137,6 +3155,9 @@
       </c>
       <c r="Q7" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>364</v>
@@ -3237,7 +3258,9 @@
       <c r="L8" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="N8" s="2" t="s">
         <v>389</v>
       </c>
@@ -3249,6 +3272,9 @@
       </c>
       <c r="Q8" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>355</v>
@@ -3341,7 +3367,9 @@
       <c r="L9" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="N9" s="2" t="s">
         <v>393</v>
       </c>
@@ -3353,6 +3381,9 @@
       </c>
       <c r="Q9" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>355</v>
@@ -3424,7 +3455,9 @@
       <c r="L10" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="N10" s="2" t="s">
         <v>372</v>
       </c>
@@ -3436,6 +3469,9 @@
       </c>
       <c r="Q10" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>355</v>
@@ -3510,7 +3546,9 @@
       <c r="L11" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="N11" s="2" t="s">
         <v>362</v>
       </c>
@@ -3522,6 +3560,9 @@
       </c>
       <c r="Q11" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>355</v>
@@ -3608,7 +3649,9 @@
       <c r="L12" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="N12" s="2" t="s">
         <v>398</v>
       </c>
@@ -3620,6 +3663,9 @@
       </c>
       <c r="Q12" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>355</v>
@@ -3715,7 +3761,9 @@
       <c r="L13" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="N13" s="2" t="s">
         <v>361</v>
       </c>
@@ -3727,6 +3775,9 @@
       </c>
       <c r="Q13" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>355</v>
@@ -3825,6 +3876,9 @@
       <c r="Q14" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="S14" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="T14" s="2" t="s">
         <v>355</v>
       </c>
@@ -3877,7 +3931,7 @@
         <v>355</v>
       </c>
       <c r="DM14" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="DQ14" s="2"/>
       <c r="DS14" s="2"/>
@@ -3955,6 +4009,9 @@
       <c r="Q15" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="S15" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="T15" s="2" t="s">
         <v>355</v>
       </c>
@@ -3998,7 +4055,7 @@
         <v>355</v>
       </c>
       <c r="DM15" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="DQ15" s="2"/>
       <c r="DS15" s="2"/>
@@ -4067,6 +4124,9 @@
       <c r="Q16" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="S16" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="T16" s="2" t="s">
         <v>355</v>
       </c>
@@ -4120,7 +4180,7 @@
         <v>355</v>
       </c>
       <c r="DM16" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="DQ16" s="2"/>
       <c r="DS16" s="2"/>
@@ -4189,6 +4249,9 @@
       <c r="Q17" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="S17" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="T17" s="2" t="s">
         <v>355</v>
       </c>
@@ -4247,7 +4310,7 @@
         <v>355</v>
       </c>
       <c r="DM17" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="DQ17" s="2"/>
       <c r="DS17" s="2"/>
@@ -4316,6 +4379,9 @@
       <c r="Q18" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="S18" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="T18" s="2" t="s">
         <v>355</v>
       </c>
@@ -4362,7 +4428,7 @@
         <v>355</v>
       </c>
       <c r="DM18" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="DQ18" s="2"/>
       <c r="DS18" s="2"/>

--- a/notebooks/ITPR1/input/ITPR1_GLSP_individuals.xlsx
+++ b/notebooks/ITPR1/input/ITPR1_GLSP_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/ITPR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB2D782-117D-4F4B-A2A1-A5F77D304604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F26AAE-C6AC-9B40-ABBE-852EEBB1DF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="5060" windowWidth="43040" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2660" windowWidth="38400" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITPR1_GillespieSyn_05222024" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="406">
   <si>
     <t>PMID</t>
   </si>
@@ -232,27 +232,6 @@
     <t>Bruxism</t>
   </si>
   <si>
-    <t>Deep philtrum</t>
-  </si>
-  <si>
-    <t>Elfin facies</t>
-  </si>
-  <si>
-    <t>Facial palsy</t>
-  </si>
-  <si>
-    <t>Flat forehead</t>
-  </si>
-  <si>
-    <t>Frontal bossing</t>
-  </si>
-  <si>
-    <t>High palate</t>
-  </si>
-  <si>
-    <t>Increased overbite</t>
-  </si>
-  <si>
     <t>Microcephaly</t>
   </si>
   <si>
@@ -415,9 +394,6 @@
     <t>Persistent head lag</t>
   </si>
   <si>
-    <t>Difficulty walking</t>
-  </si>
-  <si>
     <t>Action tremor</t>
   </si>
   <si>
@@ -742,27 +718,6 @@
     <t>HP:0003763</t>
   </si>
   <si>
-    <t>HP:0002002</t>
-  </si>
-  <si>
-    <t>HP:0004428</t>
-  </si>
-  <si>
-    <t>HP:0010628</t>
-  </si>
-  <si>
-    <t>HP:0004425</t>
-  </si>
-  <si>
-    <t>HP:0002007</t>
-  </si>
-  <si>
-    <t>HP:0000218</t>
-  </si>
-  <si>
-    <t>HP:0011094</t>
-  </si>
-  <si>
     <t>HP:0000252</t>
   </si>
   <si>
@@ -923,9 +878,6 @@
   </si>
   <si>
     <t>HP:0032988</t>
-  </si>
-  <si>
-    <t>HP:0002355</t>
   </si>
   <si>
     <t>HP:0002345</t>
@@ -1574,11 +1526,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FX18"/>
+  <dimension ref="A1:FP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DH1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9:M13"/>
+      <selection pane="bottomLeft" activeCell="DU1" sqref="DU1:DU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1603,7 +1555,7 @@
     <col min="64" max="64" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1665,7 @@
         <v>35</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>36</v>
@@ -1974,25 +1926,25 @@
         <v>121</v>
       </c>
       <c r="DT1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DU1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="DV1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DW1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="DX1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="DY1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DZ1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="EA1" s="2" t="s">
         <v>130</v>
@@ -2120,832 +2072,784 @@
       <c r="FP1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="S2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="CO2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CS2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="CT2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="CU2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CV2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CX2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CY2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="CZ2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="DB2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="DE2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="DF2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="DG2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="DH2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="DI2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="DJ2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="DL2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="DM2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="DN2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="DO2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="DP2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="DQ2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="DR2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="DS2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="DV2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="DY2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="DZ2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="ED2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="EE2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="EF2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="EG2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EH2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EI2" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EJ2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="EK2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EL2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="EM2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="EN2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="EO2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="EP2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="ER2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="ES2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="ET2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="EU2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="EV2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="EW2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="EX2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="EY2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="EZ2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="FA2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="FB2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="FC2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="FD2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="FE2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="FF2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="FG2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="FH2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FI2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="FJ2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="FK2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="FL2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="FM2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="FN2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="FO2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="FP2" s="2" t="s">
+        <v>333</v>
+      </c>
     </row>
-    <row r="2" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="CB2" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="CL2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="CM2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="CN2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="CP2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CQ2" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="CR2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CS2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="CT2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV2" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="DA2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="DB2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="DC2" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="DD2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="DE2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="DF2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="DG2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="DH2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="DI2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="DJ2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="DK2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="DL2" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="DM2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="DN2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="DO2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="DP2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="DQ2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="DR2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="DS2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="DU2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="DV2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="DW2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="DX2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="DY2" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EA2" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EB2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EC2" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="ED2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EE2" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="EF2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="EG2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="EH2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="EI2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="EJ2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="EK2" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="EL2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="EM2" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="EN2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="EO2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="EP2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="EQ2" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="ER2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="ES2" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="ET2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="EU2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="EV2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="EW2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="EX2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="EY2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="EZ2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="FA2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="FB2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="FC2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="FD2" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="FE2" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="FF2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="FG2" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="FH2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="FI2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="FJ2" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="FK2" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="FL2" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="FM2" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="FN2" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="FO2" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="FP2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="FQ2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="FR2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="FS2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="FT2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="FU2" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="FV2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="FW2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="FX2" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AJ3" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY3" s="2"/>
       <c r="BG3" s="2"/>
       <c r="BI3" s="2"/>
       <c r="BK3" s="2"/>
       <c r="BL3" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD3" s="2"/>
-      <c r="CT3" s="2"/>
-      <c r="CW3" s="2"/>
-      <c r="DB3" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="DG3" s="2"/>
-      <c r="DL3" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="BW3" s="2"/>
+      <c r="CM3" s="2"/>
+      <c r="CP3" s="2"/>
+      <c r="CU3" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="CZ3" s="2"/>
+      <c r="DE3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DJ3" s="2"/>
+      <c r="DL3" s="2"/>
+      <c r="DM3" s="2"/>
+      <c r="DN3" s="2"/>
+      <c r="DO3" s="2"/>
+      <c r="DP3" s="2"/>
       <c r="DQ3" s="2"/>
-      <c r="DS3" s="2"/>
-      <c r="DT3" s="2"/>
-      <c r="DU3" s="2"/>
-      <c r="DV3" s="2"/>
-      <c r="DW3" s="2"/>
-      <c r="DX3" s="2"/>
     </row>
-    <row r="4" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="W4" s="2"/>
       <c r="Y4" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AJ4" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY4" s="2"/>
       <c r="BG4" s="2"/>
       <c r="BI4" s="2"/>
       <c r="BK4" s="2"/>
       <c r="BL4" s="2"/>
-      <c r="CD4" s="2"/>
-      <c r="CT4" s="2"/>
-      <c r="CW4" s="2"/>
-      <c r="DB4" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="DG4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CU4" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="CZ4" s="2"/>
+      <c r="DE4" s="2"/>
+      <c r="DJ4" s="2"/>
       <c r="DL4" s="2"/>
+      <c r="DM4" s="2"/>
+      <c r="DN4" s="2"/>
+      <c r="DO4" s="2"/>
+      <c r="DP4" s="2"/>
       <c r="DQ4" s="2"/>
-      <c r="DS4" s="2"/>
-      <c r="DT4" s="2"/>
-      <c r="DU4" s="2"/>
-      <c r="DV4" s="2"/>
-      <c r="DW4" s="2"/>
-      <c r="DX4" s="2"/>
     </row>
-    <row r="5" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AA5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AG5" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AH5" s="2"/>
       <c r="AJ5" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN5" s="2"/>
       <c r="AY5" s="2"/>
@@ -2953,537 +2857,537 @@
       <c r="BI5" s="2"/>
       <c r="BK5" s="2"/>
       <c r="BL5" s="2"/>
-      <c r="CD5" s="2"/>
-      <c r="CT5" s="2"/>
-      <c r="CW5" s="2"/>
-      <c r="DG5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CP5" s="2"/>
+      <c r="CZ5" s="2"/>
+      <c r="DE5" s="2"/>
+      <c r="DF5" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="DJ5" s="2"/>
       <c r="DL5" s="2"/>
-      <c r="DM5" s="2" t="s">
-        <v>360</v>
-      </c>
+      <c r="DM5" s="2"/>
+      <c r="DN5" s="2"/>
+      <c r="DO5" s="2"/>
+      <c r="DP5" s="2"/>
       <c r="DQ5" s="2"/>
-      <c r="DS5" s="2"/>
-      <c r="DT5" s="2"/>
-      <c r="DU5" s="2"/>
-      <c r="DV5" s="2"/>
-      <c r="DW5" s="2"/>
-      <c r="DX5" s="2"/>
-      <c r="EG5" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FB5" s="2" t="s">
-        <v>355</v>
+      <c r="DY5" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="ET5" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AJ6" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BD6" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BF6" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BG6" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BH6" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BI6" s="2"/>
       <c r="BK6" s="2"/>
       <c r="BL6" s="2"/>
       <c r="BN6" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD6" s="2"/>
-      <c r="CT6" s="2"/>
-      <c r="CW6" s="2"/>
-      <c r="DB6" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="DG6" s="2"/>
-      <c r="DL6" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="BW6" s="2"/>
+      <c r="CM6" s="2"/>
+      <c r="CP6" s="2"/>
+      <c r="CU6" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="CZ6" s="2"/>
+      <c r="DE6" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DJ6" s="2"/>
+      <c r="DL6" s="2"/>
+      <c r="DM6" s="2"/>
+      <c r="DN6" s="2"/>
+      <c r="DO6" s="2"/>
+      <c r="DP6" s="2"/>
       <c r="DQ6" s="2"/>
-      <c r="DS6" s="2"/>
-      <c r="DT6" s="2"/>
-      <c r="DU6" s="2"/>
-      <c r="DV6" s="2"/>
-      <c r="DW6" s="2"/>
-      <c r="DX6" s="2"/>
+      <c r="EM6" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="EU6" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FC6" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FD6" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FE6" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FF6" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
+      </c>
+      <c r="EV6" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="EW6" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="EX6" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="U7" s="2"/>
       <c r="AA7" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AJ7" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BE7" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BG7" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BH7" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BI7" s="2"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BN7" s="2"/>
-      <c r="CD7" s="2"/>
-      <c r="CT7" s="2"/>
-      <c r="CW7" s="2"/>
-      <c r="DB7" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="DG7" s="2"/>
-      <c r="DL7" s="2" t="s">
-        <v>355</v>
-      </c>
+      <c r="BW7" s="2"/>
+      <c r="CM7" s="2"/>
+      <c r="CP7" s="2"/>
+      <c r="CU7" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="CZ7" s="2"/>
+      <c r="DE7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DJ7" s="2"/>
+      <c r="DL7" s="2"/>
+      <c r="DM7" s="2"/>
+      <c r="DN7" s="2"/>
+      <c r="DO7" s="2"/>
+      <c r="DP7" s="2"/>
       <c r="DQ7" s="2"/>
-      <c r="DS7" s="2"/>
-      <c r="DT7" s="2"/>
-      <c r="DU7" s="2"/>
-      <c r="DV7" s="2"/>
-      <c r="DW7" s="2"/>
-      <c r="DX7" s="2"/>
-      <c r="FB7" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FD7" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="FG7" s="2" t="s">
-        <v>355</v>
+      <c r="ET7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="EV7" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="EY7" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AJ8" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN8" s="2"/>
       <c r="AT8" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="BG8" s="2"/>
       <c r="BI8" s="2"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BN8" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD8" s="2"/>
-      <c r="CT8" s="2"/>
-      <c r="CW8" s="2"/>
-      <c r="DG8" s="2"/>
-      <c r="DL8" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="BW8" s="2"/>
+      <c r="CM8" s="2"/>
+      <c r="CP8" s="2"/>
+      <c r="CZ8" s="2"/>
+      <c r="DE8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DJ8" s="2"/>
+      <c r="DL8" s="2"/>
+      <c r="DM8" s="2"/>
+      <c r="DN8" s="2"/>
+      <c r="DO8" s="2"/>
+      <c r="DP8" s="2"/>
       <c r="DQ8" s="2"/>
-      <c r="DS8" s="2"/>
-      <c r="DT8" s="2"/>
-      <c r="DU8" s="2"/>
-      <c r="DV8" s="2"/>
-      <c r="DW8" s="2"/>
-      <c r="DX8" s="2"/>
-      <c r="EG8" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FK8" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="FL8" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FM8" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FN8" s="2" t="s">
-        <v>355</v>
+      <c r="DY8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FC8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="FD8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FE8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FF8" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AA9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AJ9" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN9" s="2"/>
       <c r="AY9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BI9" s="2"/>
       <c r="BK9" s="2"/>
-      <c r="CD9" s="2"/>
-      <c r="CT9" s="2"/>
-      <c r="CW9" s="2"/>
-      <c r="DG9" s="2"/>
-      <c r="DL9" s="2" t="s">
-        <v>355</v>
-      </c>
+      <c r="BW9" s="2"/>
+      <c r="CM9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CZ9" s="2"/>
+      <c r="DE9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DJ9" s="2"/>
+      <c r="DL9" s="2"/>
+      <c r="DM9" s="2"/>
+      <c r="DN9" s="2"/>
+      <c r="DO9" s="2"/>
+      <c r="DP9" s="2"/>
       <c r="DQ9" s="2"/>
-      <c r="DS9" s="2"/>
-      <c r="DT9" s="2"/>
-      <c r="DU9" s="2"/>
-      <c r="DV9" s="2"/>
-      <c r="DW9" s="2"/>
-      <c r="DX9" s="2"/>
-      <c r="EG9" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="EY9" s="2" t="s">
-        <v>355</v>
+      <c r="DY9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="EQ9" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AJ10" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN10" s="2"/>
       <c r="AY10" s="2"/>
@@ -3491,963 +3395,963 @@
       <c r="BI10" s="2"/>
       <c r="BK10" s="2"/>
       <c r="BL10" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD10" s="2"/>
-      <c r="CT10" s="2"/>
-      <c r="CW10" s="2"/>
-      <c r="DG10" s="2"/>
-      <c r="DL10" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="BW10" s="2"/>
+      <c r="CM10" s="2"/>
+      <c r="CP10" s="2"/>
+      <c r="CZ10" s="2"/>
+      <c r="DE10" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DJ10" s="2"/>
+      <c r="DL10" s="2"/>
+      <c r="DM10" s="2"/>
+      <c r="DN10" s="2"/>
+      <c r="DO10" s="2"/>
+      <c r="DP10" s="2"/>
       <c r="DQ10" s="2"/>
-      <c r="DS10" s="2"/>
-      <c r="DT10" s="2"/>
-      <c r="DU10" s="2"/>
-      <c r="DV10" s="2"/>
-      <c r="DW10" s="2"/>
-      <c r="DX10" s="2"/>
-      <c r="EG10" s="2" t="s">
-        <v>355</v>
+      <c r="DY10" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C11" s="2">
         <v>261348</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AJ11" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN11" s="2"/>
       <c r="AT11" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY11" s="2"/>
       <c r="BG11" s="2"/>
       <c r="BI11" s="2"/>
       <c r="BK11" s="2"/>
       <c r="BN11" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD11" s="2"/>
-      <c r="CT11" s="2"/>
-      <c r="CW11" s="2"/>
-      <c r="DG11" s="2"/>
-      <c r="DL11" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="BW11" s="2"/>
+      <c r="CM11" s="2"/>
+      <c r="CP11" s="2"/>
+      <c r="CZ11" s="2"/>
+      <c r="DE11" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DJ11" s="2"/>
+      <c r="DL11" s="2"/>
+      <c r="DM11" s="2"/>
+      <c r="DN11" s="2"/>
+      <c r="DO11" s="2"/>
+      <c r="DP11" s="2"/>
       <c r="DQ11" s="2"/>
-      <c r="DS11" s="2"/>
-      <c r="DT11" s="2"/>
-      <c r="DU11" s="2"/>
-      <c r="DV11" s="2"/>
-      <c r="DW11" s="2"/>
-      <c r="DX11" s="2"/>
-      <c r="EG11" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="EY11" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FM11" s="2" t="s">
-        <v>355</v>
+      <c r="DY11" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="EQ11" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FE11" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C12" s="2">
         <v>263220</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AJ12" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN12" s="2"/>
       <c r="AT12" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AX12" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY12" s="2"/>
       <c r="BG12" s="2"/>
       <c r="BI12" s="2"/>
       <c r="BK12" s="2"/>
       <c r="BL12" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BN12" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD12" s="2"/>
-      <c r="CT12" s="2"/>
-      <c r="CW12" s="2"/>
-      <c r="DG12" s="2"/>
-      <c r="DL12" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="BW12" s="2"/>
+      <c r="CM12" s="2"/>
+      <c r="CP12" s="2"/>
+      <c r="CZ12" s="2"/>
+      <c r="DE12" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DJ12" s="2"/>
+      <c r="DL12" s="2"/>
+      <c r="DM12" s="2"/>
+      <c r="DN12" s="2"/>
+      <c r="DO12" s="2"/>
+      <c r="DP12" s="2"/>
       <c r="DQ12" s="2"/>
-      <c r="DS12" s="2"/>
-      <c r="DT12" s="2"/>
-      <c r="DU12" s="2"/>
-      <c r="DV12" s="2"/>
-      <c r="DW12" s="2"/>
-      <c r="DX12" s="2"/>
-      <c r="EG12" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FE12" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FK12" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FL12" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FO12" s="2" t="s">
-        <v>355</v>
+      <c r="DY12" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="EW12" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FC12" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FD12" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FG12" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AJ13" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN13" s="2"/>
       <c r="AT13" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY13" s="2"/>
       <c r="BG13" s="2"/>
       <c r="BI13" s="2"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BN13" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD13" s="2"/>
-      <c r="CT13" s="2"/>
-      <c r="CW13" s="2"/>
-      <c r="DG13" s="2"/>
-      <c r="DL13" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="BW13" s="2"/>
+      <c r="CM13" s="2"/>
+      <c r="CP13" s="2"/>
+      <c r="CZ13" s="2"/>
+      <c r="DE13" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DJ13" s="2"/>
+      <c r="DL13" s="2"/>
+      <c r="DM13" s="2"/>
+      <c r="DN13" s="2"/>
+      <c r="DO13" s="2"/>
+      <c r="DP13" s="2"/>
       <c r="DQ13" s="2"/>
-      <c r="DS13" s="2"/>
-      <c r="DT13" s="2"/>
-      <c r="DU13" s="2"/>
-      <c r="DV13" s="2"/>
-      <c r="DW13" s="2"/>
-      <c r="DX13" s="2"/>
-      <c r="EG13" s="2" t="s">
-        <v>355</v>
+      <c r="DY13" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AJ14" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY14" s="2"/>
       <c r="BF14" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BG14" s="2"/>
       <c r="BH14" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BI14" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BJ14" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BK14" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BL14" s="2"/>
       <c r="BM14" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BN14" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD14" s="2"/>
-      <c r="CF14" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CT14" s="2"/>
-      <c r="CW14" s="2"/>
-      <c r="DG14" s="2"/>
-      <c r="DL14" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="DM14" s="2" t="s">
-        <v>360</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="BW14" s="2"/>
+      <c r="BY14" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="CM14" s="2"/>
+      <c r="CP14" s="2"/>
+      <c r="CZ14" s="2"/>
+      <c r="DE14" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DF14" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="DJ14" s="2"/>
+      <c r="DL14" s="2"/>
+      <c r="DM14" s="2"/>
+      <c r="DN14" s="2"/>
+      <c r="DO14" s="2"/>
+      <c r="DP14" s="2"/>
       <c r="DQ14" s="2"/>
-      <c r="DS14" s="2"/>
-      <c r="DT14" s="2"/>
-      <c r="DU14" s="2"/>
-      <c r="DV14" s="2"/>
-      <c r="DW14" s="2"/>
-      <c r="DX14" s="2"/>
-      <c r="EB14" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FQ14" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FR14" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FS14" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FT14" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FX14" s="2" t="s">
-        <v>355</v>
+      <c r="FI14" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FJ14" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FK14" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FL14" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FP14" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AN15" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY15" s="2"/>
       <c r="BD15" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BF15" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BG15" s="2"/>
       <c r="BI15" s="2"/>
       <c r="BK15" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BL15" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BM15" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BN15" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD15" s="2"/>
-      <c r="CF15" s="2"/>
-      <c r="CT15" s="2"/>
-      <c r="CW15" s="2"/>
-      <c r="DG15" s="2"/>
-      <c r="DL15" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="DM15" s="2" t="s">
-        <v>360</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="BW15" s="2"/>
+      <c r="BY15" s="2"/>
+      <c r="CM15" s="2"/>
+      <c r="CP15" s="2"/>
+      <c r="CZ15" s="2"/>
+      <c r="DE15" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DF15" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="DJ15" s="2"/>
+      <c r="DL15" s="2"/>
+      <c r="DM15" s="2"/>
+      <c r="DN15" s="2"/>
+      <c r="DO15" s="2"/>
+      <c r="DP15" s="2"/>
       <c r="DQ15" s="2"/>
-      <c r="DS15" s="2"/>
-      <c r="DT15" s="2"/>
-      <c r="DU15" s="2"/>
-      <c r="DV15" s="2"/>
-      <c r="DW15" s="2"/>
-      <c r="DX15" s="2"/>
-      <c r="DY15" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="EB15" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FX15" s="2" t="s">
-        <v>356</v>
+      <c r="DR15" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FP15" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AJ16" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY16" s="2"/>
       <c r="BD16" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BF16" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BG16" s="2"/>
       <c r="BH16" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BI16" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BK16" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BL16" s="2"/>
       <c r="BM16" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BN16" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD16" s="2"/>
-      <c r="CF16" s="2"/>
-      <c r="CT16" s="2"/>
-      <c r="CW16" s="2"/>
-      <c r="DG16" s="2"/>
-      <c r="DL16" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="DM16" s="2" t="s">
-        <v>360</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="BW16" s="2"/>
+      <c r="BY16" s="2"/>
+      <c r="CM16" s="2"/>
+      <c r="CP16" s="2"/>
+      <c r="CZ16" s="2"/>
+      <c r="DE16" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DF16" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="DJ16" s="2"/>
+      <c r="DL16" s="2"/>
+      <c r="DM16" s="2"/>
+      <c r="DN16" s="2"/>
+      <c r="DO16" s="2"/>
+      <c r="DP16" s="2"/>
       <c r="DQ16" s="2"/>
-      <c r="DS16" s="2"/>
-      <c r="DT16" s="2"/>
-      <c r="DU16" s="2"/>
-      <c r="DV16" s="2"/>
-      <c r="DW16" s="2"/>
-      <c r="DX16" s="2"/>
-      <c r="EB16" s="2" t="s">
-        <v>355</v>
+      <c r="FH16" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="FP16" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FX16" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AF17" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AH17" s="2"/>
       <c r="AJ17" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY17" s="2"/>
       <c r="BD17" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BF17" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BG17" s="2"/>
       <c r="BH17" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BI17" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BJ17" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BK17" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BL17" s="2"/>
       <c r="BM17" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BN17" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD17" s="2"/>
-      <c r="CF17" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="CT17" s="2"/>
-      <c r="CW17" s="2"/>
-      <c r="DG17" s="2"/>
-      <c r="DL17" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="DM17" s="2" t="s">
-        <v>360</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="BW17" s="2"/>
+      <c r="BY17" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="CM17" s="2"/>
+      <c r="CP17" s="2"/>
+      <c r="CZ17" s="2"/>
+      <c r="DE17" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DF17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="DJ17" s="2"/>
+      <c r="DL17" s="2"/>
+      <c r="DM17" s="2"/>
+      <c r="DN17" s="2"/>
+      <c r="DO17" s="2"/>
+      <c r="DP17" s="2"/>
       <c r="DQ17" s="2"/>
-      <c r="DS17" s="2"/>
-      <c r="DT17" s="2"/>
-      <c r="DU17" s="2"/>
-      <c r="DV17" s="2"/>
-      <c r="DW17" s="2"/>
-      <c r="DX17" s="2"/>
-      <c r="EB17" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FU17" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FX17" s="2" t="s">
-        <v>356</v>
+      <c r="FM17" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FP17" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
-    <row r="18" spans="1:180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AH18" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AJ18" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AY18" s="2"/>
       <c r="BF18" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BG18" s="2"/>
       <c r="BH18" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BI18" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BJ18" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BK18" s="2"/>
       <c r="BL18" s="2"/>
       <c r="BM18" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="BN18" s="2"/>
-      <c r="CD18" s="2"/>
-      <c r="CF18" s="2"/>
-      <c r="CT18" s="2"/>
-      <c r="CW18" s="2"/>
-      <c r="DG18" s="2"/>
-      <c r="DL18" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="DM18" s="2" t="s">
-        <v>360</v>
-      </c>
+      <c r="BW18" s="2"/>
+      <c r="BY18" s="2"/>
+      <c r="CM18" s="2"/>
+      <c r="CP18" s="2"/>
+      <c r="CZ18" s="2"/>
+      <c r="DE18" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DF18" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="DJ18" s="2"/>
+      <c r="DL18" s="2"/>
+      <c r="DM18" s="2"/>
+      <c r="DN18" s="2"/>
+      <c r="DO18" s="2"/>
+      <c r="DP18" s="2"/>
       <c r="DQ18" s="2"/>
-      <c r="DS18" s="2"/>
-      <c r="DT18" s="2"/>
-      <c r="DU18" s="2"/>
-      <c r="DV18" s="2"/>
-      <c r="DW18" s="2"/>
-      <c r="DX18" s="2"/>
-      <c r="EB18" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FV18" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FW18" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FX18" s="2" t="s">
-        <v>356</v>
+      <c r="FN18" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FO18" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FP18" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/ITPR1/input/ITPR1_GLSP_individuals.xlsx
+++ b/notebooks/ITPR1/input/ITPR1_GLSP_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/ITPR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E33026-B7A5-FC41-A073-AC164EB68A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC37C541-F26A-3C4A-86E2-1272FBAB7557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4240" windowWidth="38400" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4240" windowWidth="54100" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITPR1_GillespieSyn_05222024" sheetId="1" r:id="rId1"/>
@@ -1412,7 +1412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,12 +1423,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E7FD"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1449,9 +1443,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1463,7 +1454,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1684,9 +1678,9 @@
   </sheetPr>
   <dimension ref="A1:EV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="DW1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="EH41" sqref="EH41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1712,801 +1706,801 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AW1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AX1" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BA1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BB1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BC1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BD1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BE1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BF1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BG1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BH1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BI1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BK1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BL1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BM1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BN1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BO1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BP1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BR1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="BS1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BT1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BU1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="BV1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BW1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BX1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="BY1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CA1" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CB1" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CC1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CD1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CE1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CF1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CG1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CH1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CI1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="CK1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CL1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CM1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CN1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="CO1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="CP1" s="8" t="s">
+      <c r="CP1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CR1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CS1" s="8" t="s">
+      <c r="CS1" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="CT1" s="8" t="s">
+      <c r="CT1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CU1" s="8" t="s">
+      <c r="CU1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="CV1" s="8" t="s">
+      <c r="CV1" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="CW1" s="8" t="s">
+      <c r="CW1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CX1" s="8" t="s">
+      <c r="CX1" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="CY1" s="8" t="s">
+      <c r="CY1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="CZ1" s="8" t="s">
+      <c r="CZ1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="DA1" s="8" t="s">
+      <c r="DA1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="DB1" s="8" t="s">
+      <c r="DB1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="DC1" s="8" t="s">
+      <c r="DC1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="DD1" s="8" t="s">
+      <c r="DD1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="DE1" s="8" t="s">
+      <c r="DE1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="DF1" s="8" t="s">
+      <c r="DF1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="DG1" s="8" t="s">
+      <c r="DG1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="DH1" s="8" t="s">
+      <c r="DH1" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="DI1" s="8" t="s">
+      <c r="DI1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="DJ1" s="8" t="s">
+      <c r="DJ1" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="DK1" s="8" t="s">
+      <c r="DK1" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="DL1" s="8" t="s">
+      <c r="DL1" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="DM1" s="8" t="s">
+      <c r="DM1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="DN1" s="8" t="s">
+      <c r="DN1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="DO1" s="8" t="s">
+      <c r="DO1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="DP1" s="8" t="s">
+      <c r="DP1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="DQ1" s="8" t="s">
+      <c r="DQ1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="DR1" s="8" t="s">
+      <c r="DR1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="DS1" s="8" t="s">
+      <c r="DS1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="DT1" s="8" t="s">
+      <c r="DT1" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="DU1" s="8" t="s">
+      <c r="DU1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="DV1" s="8" t="s">
+      <c r="DV1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="DW1" s="8" t="s">
+      <c r="DW1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="DX1" s="8" t="s">
+      <c r="DX1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="DY1" s="8" t="s">
+      <c r="DY1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="DZ1" s="8" t="s">
+      <c r="DZ1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="EA1" s="8" t="s">
+      <c r="EA1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="EB1" s="8" t="s">
+      <c r="EB1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="EC1" s="8" t="s">
+      <c r="EC1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="ED1" s="8" t="s">
+      <c r="ED1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="EE1" s="8" t="s">
+      <c r="EE1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="EF1" s="8" t="s">
+      <c r="EF1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="EG1" s="8" t="s">
+      <c r="EG1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="EH1" s="8" t="s">
+      <c r="EH1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="EI1" s="8" t="s">
+      <c r="EI1" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="EJ1" s="8" t="s">
+      <c r="EJ1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="EK1" s="8" t="s">
+      <c r="EK1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="EL1" s="8" t="s">
+      <c r="EL1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="EM1" s="8" t="s">
+      <c r="EM1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="EN1" s="8" t="s">
+      <c r="EN1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="EO1" s="8" t="s">
+      <c r="EO1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="EP1" s="8" t="s">
+      <c r="EP1" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="EQ1" s="8" t="s">
+      <c r="EQ1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="ER1" s="8" t="s">
+      <c r="ER1" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="ES1" s="8" t="s">
+      <c r="ES1" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="ET1" s="8" t="s">
+      <c r="ET1" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="EU1" s="8" t="s">
+      <c r="EU1" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="EV1" s="8" t="s">
+      <c r="EV1" s="5" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AP2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AR2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AS2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AV2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AW2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AY2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AZ2" s="8" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="BA2" s="8" t="s">
+      <c r="BA2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BB2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="BC2" s="8" t="s">
+      <c r="BC2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BD2" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BE2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BF2" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BG2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="BH2" s="10" t="s">
+      <c r="BH2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="BI2" s="8" t="s">
+      <c r="BI2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BJ2" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BK2" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BL2" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BM2" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BN2" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BO2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="BP2" s="8" t="s">
+      <c r="BP2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BQ2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="BR2" s="8" t="s">
+      <c r="BR2" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="BS2" s="8" t="s">
+      <c r="BS2" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="BT2" s="8" t="s">
+      <c r="BT2" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="BU2" s="8" t="s">
+      <c r="BU2" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BV2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="BW2" s="8" t="s">
+      <c r="BW2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="BX2" s="8" t="s">
+      <c r="BX2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="BY2" s="8" t="s">
+      <c r="BY2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="BZ2" s="10" t="s">
+      <c r="BZ2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="CA2" s="10" t="s">
+      <c r="CA2" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="CB2" s="10" t="s">
+      <c r="CB2" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="CC2" s="8" t="s">
+      <c r="CC2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="CD2" s="8" t="s">
+      <c r="CD2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="CE2" s="8" t="s">
+      <c r="CE2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="CF2" s="8" t="s">
+      <c r="CF2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="CG2" s="8" t="s">
+      <c r="CG2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="CH2" s="8" t="s">
+      <c r="CH2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="CI2" s="8" t="s">
+      <c r="CI2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="CJ2" s="8" t="s">
+      <c r="CJ2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="CK2" s="8" t="s">
+      <c r="CK2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="CL2" s="8" t="s">
+      <c r="CL2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="CM2" s="8" t="s">
+      <c r="CM2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="CN2" s="8" t="s">
+      <c r="CN2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="CO2" s="8" t="s">
+      <c r="CO2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="CP2" s="8" t="s">
+      <c r="CP2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="CQ2" s="8" t="s">
+      <c r="CQ2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="CR2" s="8" t="s">
+      <c r="CR2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="CS2" s="8" t="s">
+      <c r="CS2" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="CT2" s="8" t="s">
+      <c r="CT2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="CU2" s="8" t="s">
+      <c r="CU2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="CV2" s="8" t="s">
+      <c r="CV2" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="CW2" s="8" t="s">
+      <c r="CW2" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="CX2" s="8" t="s">
+      <c r="CX2" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="CY2" s="8" t="s">
+      <c r="CY2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="CZ2" s="8" t="s">
+      <c r="CZ2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="DA2" s="8" t="s">
+      <c r="DA2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="DB2" s="8" t="s">
+      <c r="DB2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="DC2" s="8" t="s">
+      <c r="DC2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="DD2" s="8" t="s">
+      <c r="DD2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="DE2" s="8" t="s">
+      <c r="DE2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="DF2" s="8" t="s">
+      <c r="DF2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="DG2" s="8" t="s">
+      <c r="DG2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="DH2" s="8" t="s">
+      <c r="DH2" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="DI2" s="8" t="s">
+      <c r="DI2" s="5" t="s">
         <v>217</v>
       </c>
       <c r="DJ2" s="2" t="s">
@@ -2518,91 +2512,91 @@
       <c r="DL2" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="DM2" s="8" t="s">
+      <c r="DM2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="DN2" s="8" t="s">
+      <c r="DN2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="DO2" s="8" t="s">
+      <c r="DO2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="DP2" s="8" t="s">
+      <c r="DP2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="DQ2" s="8" t="s">
+      <c r="DQ2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="DR2" s="8" t="s">
+      <c r="DR2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="DS2" s="8" t="s">
+      <c r="DS2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="DT2" s="8" t="s">
+      <c r="DT2" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="DU2" s="8" t="s">
+      <c r="DU2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="DV2" s="8" t="s">
+      <c r="DV2" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="DW2" s="8" t="s">
+      <c r="DW2" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="DX2" s="8" t="s">
+      <c r="DX2" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="DY2" s="8" t="s">
+      <c r="DY2" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="DZ2" s="8" t="s">
+      <c r="DZ2" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="EA2" s="8" t="s">
+      <c r="EA2" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="EB2" s="8" t="s">
+      <c r="EB2" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="EC2" s="8" t="s">
+      <c r="EC2" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="ED2" s="8" t="s">
+      <c r="ED2" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="EE2" s="8" t="s">
+      <c r="EE2" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="EF2" s="8" t="s">
+      <c r="EF2" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="EG2" s="8" t="s">
+      <c r="EG2" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="EH2" s="8" t="s">
+      <c r="EH2" s="5" t="s">
         <v>243</v>
       </c>
       <c r="EI2" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="EJ2" s="8" t="s">
+      <c r="EJ2" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="EK2" s="8" t="s">
+      <c r="EK2" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="EL2" s="8" t="s">
+      <c r="EL2" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="EM2" s="8" t="s">
+      <c r="EM2" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="EN2" s="8" t="s">
+      <c r="EN2" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="EO2" s="8" t="s">
+      <c r="EO2" s="5" t="s">
         <v>250</v>
       </c>
       <c r="EP2" s="2" t="s">
@@ -2628,78 +2622,78 @@
       </c>
     </row>
     <row r="3" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="5" t="s">
         <v>256</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="5" t="s">
         <v>256</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AG3" s="2"/>
@@ -2707,12 +2701,12 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
-      <c r="AL3" s="8"/>
+      <c r="AL3" s="5"/>
       <c r="AM3" s="2"/>
-      <c r="AN3" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AN3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO3" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AP3" s="2" t="s">
@@ -2723,18 +2717,18 @@
       </c>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
-      <c r="AT3" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AU3" s="8" t="s">
+      <c r="AT3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU3" s="5" t="s">
         <v>257</v>
       </c>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
-      <c r="AY3" s="8"/>
+      <c r="AY3" s="5"/>
       <c r="AZ3" s="2"/>
-      <c r="BA3" s="8" t="s">
+      <c r="BA3" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BB3" s="2"/>
@@ -2751,14 +2745,14 @@
       <c r="BM3" s="2"/>
       <c r="BN3" s="2"/>
       <c r="BO3" s="2"/>
-      <c r="BP3" s="8"/>
+      <c r="BP3" s="5"/>
       <c r="BQ3" s="2"/>
       <c r="BR3" s="2"/>
-      <c r="BS3" s="8"/>
+      <c r="BS3" s="5"/>
       <c r="BT3" s="2"/>
-      <c r="BU3" s="8"/>
+      <c r="BU3" s="5"/>
       <c r="BV3" s="2"/>
-      <c r="BW3" s="8"/>
+      <c r="BW3" s="5"/>
       <c r="BX3" s="2"/>
       <c r="BY3" s="2"/>
       <c r="BZ3" s="2"/>
@@ -2772,7 +2766,7 @@
       <c r="CH3" s="2"/>
       <c r="CI3" s="2"/>
       <c r="CJ3" s="2"/>
-      <c r="CK3" s="8"/>
+      <c r="CK3" s="5"/>
       <c r="CL3" s="2"/>
       <c r="CM3" s="2"/>
       <c r="CN3" s="2" t="s">
@@ -2783,7 +2777,7 @@
       <c r="CQ3" s="2"/>
       <c r="CR3" s="2"/>
       <c r="CS3" s="2"/>
-      <c r="CT3" s="8" t="s">
+      <c r="CT3" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CU3" s="2"/>
@@ -2791,11 +2785,11 @@
       <c r="CW3" s="2"/>
       <c r="CX3" s="2"/>
       <c r="CY3" s="2"/>
-      <c r="CZ3" s="8"/>
+      <c r="CZ3" s="5"/>
       <c r="DA3" s="2"/>
-      <c r="DB3" s="8"/>
-      <c r="DC3" s="8"/>
-      <c r="DD3" s="8"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
       <c r="DE3" s="2"/>
       <c r="DF3" s="2"/>
       <c r="DG3" s="2"/>
@@ -2837,76 +2831,76 @@
       <c r="EQ3" s="2"/>
     </row>
     <row r="4" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="K4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S4" s="8" t="s">
+      <c r="Q4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="8"/>
+      <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="5" t="s">
         <v>277</v>
       </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="8" t="s">
+      <c r="AF4" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AG4" s="2"/>
@@ -2914,15 +2908,15 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
-      <c r="AL4" s="8"/>
+      <c r="AL4" s="5"/>
       <c r="AM4" s="2"/>
-      <c r="AN4" s="8" t="s">
+      <c r="AN4" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AO4" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AP4" s="8" t="s">
+      <c r="AP4" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AQ4" s="2" t="s">
@@ -2930,18 +2924,18 @@
       </c>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
-      <c r="AT4" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AU4" s="8" t="s">
+      <c r="AT4" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU4" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
-      <c r="AY4" s="8"/>
+      <c r="AY4" s="5"/>
       <c r="AZ4" s="2"/>
-      <c r="BA4" s="8" t="s">
+      <c r="BA4" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BB4" s="2"/>
@@ -2958,14 +2952,14 @@
       <c r="BM4" s="2"/>
       <c r="BN4" s="2"/>
       <c r="BO4" s="2"/>
-      <c r="BP4" s="8"/>
+      <c r="BP4" s="5"/>
       <c r="BQ4" s="2"/>
       <c r="BR4" s="2"/>
-      <c r="BS4" s="8"/>
+      <c r="BS4" s="5"/>
       <c r="BT4" s="2"/>
-      <c r="BU4" s="8"/>
+      <c r="BU4" s="5"/>
       <c r="BV4" s="2"/>
-      <c r="BW4" s="8"/>
+      <c r="BW4" s="5"/>
       <c r="BX4" s="2"/>
       <c r="BY4" s="2"/>
       <c r="BZ4" s="2"/>
@@ -2979,10 +2973,10 @@
       <c r="CH4" s="2"/>
       <c r="CI4" s="2"/>
       <c r="CJ4" s="2"/>
-      <c r="CK4" s="8"/>
+      <c r="CK4" s="5"/>
       <c r="CL4" s="2"/>
       <c r="CM4" s="2"/>
-      <c r="CN4" s="8" t="s">
+      <c r="CN4" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CO4" s="2"/>
@@ -2990,17 +2984,17 @@
       <c r="CQ4" s="2"/>
       <c r="CR4" s="2"/>
       <c r="CS4" s="2"/>
-      <c r="CT4" s="8"/>
+      <c r="CT4" s="5"/>
       <c r="CU4" s="2"/>
       <c r="CV4" s="2"/>
       <c r="CW4" s="2"/>
       <c r="CX4" s="2"/>
       <c r="CY4" s="2"/>
-      <c r="CZ4" s="8"/>
+      <c r="CZ4" s="5"/>
       <c r="DA4" s="2"/>
-      <c r="DB4" s="8"/>
-      <c r="DC4" s="8"/>
-      <c r="DD4" s="8"/>
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="5"/>
+      <c r="DD4" s="5"/>
       <c r="DE4" s="2"/>
       <c r="DF4" s="2"/>
       <c r="DG4" s="2"/>
@@ -3042,59 +3036,59 @@
       <c r="EQ4" s="2"/>
     </row>
     <row r="5" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="K5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="N5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S5" s="8" t="s">
+      <c r="Q5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T5" s="2"/>
@@ -3104,9 +3098,9 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -3115,28 +3109,28 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="8"/>
+      <c r="AL5" s="5"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="8"/>
+      <c r="AO5" s="5"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
-      <c r="AS5" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AT5" s="8" t="s">
+      <c r="AS5" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT5" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
-      <c r="AW5" s="8" t="s">
+      <c r="AW5" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AX5" s="2"/>
-      <c r="AY5" s="8"/>
+      <c r="AY5" s="5"/>
       <c r="AZ5" s="2"/>
-      <c r="BA5" s="8"/>
+      <c r="BA5" s="5"/>
       <c r="BB5" s="2"/>
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
@@ -3151,14 +3145,14 @@
       <c r="BM5" s="2"/>
       <c r="BN5" s="2"/>
       <c r="BO5" s="2"/>
-      <c r="BP5" s="8"/>
+      <c r="BP5" s="5"/>
       <c r="BQ5" s="2"/>
       <c r="BR5" s="2"/>
-      <c r="BS5" s="8"/>
+      <c r="BS5" s="5"/>
       <c r="BT5" s="2"/>
-      <c r="BU5" s="8"/>
+      <c r="BU5" s="5"/>
       <c r="BV5" s="2"/>
-      <c r="BW5" s="8"/>
+      <c r="BW5" s="5"/>
       <c r="BX5" s="2"/>
       <c r="BY5" s="2"/>
       <c r="BZ5" s="2"/>
@@ -3172,7 +3166,7 @@
       <c r="CH5" s="2"/>
       <c r="CI5" s="2"/>
       <c r="CJ5" s="2"/>
-      <c r="CK5" s="8"/>
+      <c r="CK5" s="5"/>
       <c r="CL5" s="2"/>
       <c r="CM5" s="2"/>
       <c r="CN5" s="2"/>
@@ -3181,19 +3175,19 @@
       <c r="CQ5" s="2"/>
       <c r="CR5" s="2"/>
       <c r="CS5" s="2"/>
-      <c r="CT5" s="8"/>
-      <c r="CU5" s="8" t="s">
+      <c r="CT5" s="5"/>
+      <c r="CU5" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="CV5" s="8"/>
-      <c r="CW5" s="8"/>
-      <c r="CX5" s="8"/>
+      <c r="CV5" s="5"/>
+      <c r="CW5" s="5"/>
+      <c r="CX5" s="5"/>
       <c r="CY5" s="2"/>
-      <c r="CZ5" s="8"/>
+      <c r="CZ5" s="5"/>
       <c r="DA5" s="2"/>
-      <c r="DB5" s="8"/>
-      <c r="DC5" s="8"/>
-      <c r="DD5" s="8"/>
+      <c r="DB5" s="5"/>
+      <c r="DC5" s="5"/>
+      <c r="DD5" s="5"/>
       <c r="DE5" s="2"/>
       <c r="DF5" s="2"/>
       <c r="DG5" s="2"/>
@@ -3213,7 +3207,7 @@
       <c r="DU5" s="2"/>
       <c r="DV5" s="2"/>
       <c r="DW5" s="2"/>
-      <c r="DX5" s="8" t="s">
+      <c r="DX5" s="5" t="s">
         <v>256</v>
       </c>
       <c r="DY5" s="2"/>
@@ -3237,115 +3231,115 @@
       <c r="EQ5" s="2"/>
     </row>
     <row r="6" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L6" s="8" t="s">
+      <c r="K6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S6" s="8" t="s">
+      <c r="Q6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="5" t="s">
         <v>256</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="8" t="s">
+      <c r="W6" s="5" t="s">
         <v>256</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC6" s="8"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC6" s="5"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="8" t="s">
+      <c r="AG6" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
-      <c r="AL6" s="8"/>
+      <c r="AL6" s="5"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AO6" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AP6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ6" s="8" t="s">
+      <c r="AN6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
         <v>257</v>
       </c>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
-      <c r="AT6" s="8" t="s">
+      <c r="AT6" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU6" s="2"/>
-      <c r="AV6" s="8" t="s">
+      <c r="AV6" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
-      <c r="AY6" s="8"/>
+      <c r="AY6" s="5"/>
       <c r="AZ6" s="2"/>
-      <c r="BA6" s="8" t="s">
+      <c r="BA6" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BB6" s="2"/>
@@ -3362,22 +3356,22 @@
       <c r="BM6" s="2"/>
       <c r="BN6" s="2"/>
       <c r="BO6" s="2"/>
-      <c r="BP6" s="8"/>
-      <c r="BQ6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="BR6" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BS6" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BT6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="BU6" s="8"/>
+      <c r="BP6" s="5"/>
+      <c r="BQ6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="BR6" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BS6" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BT6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="BU6" s="5"/>
       <c r="BV6" s="2"/>
-      <c r="BW6" s="8"/>
+      <c r="BW6" s="5"/>
       <c r="BX6" s="2"/>
       <c r="BY6" s="2"/>
       <c r="BZ6" s="2"/>
@@ -3391,10 +3385,10 @@
       <c r="CH6" s="2"/>
       <c r="CI6" s="2"/>
       <c r="CJ6" s="2"/>
-      <c r="CK6" s="8"/>
+      <c r="CK6" s="5"/>
       <c r="CL6" s="2"/>
       <c r="CM6" s="2"/>
-      <c r="CN6" s="8" t="s">
+      <c r="CN6" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CO6" s="2"/>
@@ -3402,7 +3396,7 @@
       <c r="CQ6" s="2"/>
       <c r="CR6" s="2"/>
       <c r="CS6" s="2"/>
-      <c r="CT6" s="8" t="s">
+      <c r="CT6" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CU6" s="2"/>
@@ -3410,11 +3404,11 @@
       <c r="CW6" s="2"/>
       <c r="CX6" s="2"/>
       <c r="CY6" s="2"/>
-      <c r="CZ6" s="8"/>
+      <c r="CZ6" s="5"/>
       <c r="DA6" s="2"/>
-      <c r="DB6" s="8"/>
-      <c r="DC6" s="8"/>
-      <c r="DD6" s="8"/>
+      <c r="DB6" s="5"/>
+      <c r="DC6" s="5"/>
+      <c r="DD6" s="5"/>
       <c r="DE6" s="2"/>
       <c r="DF6" s="2"/>
       <c r="DG6" s="2"/>
@@ -3429,21 +3423,21 @@
       <c r="DP6" s="2"/>
       <c r="DQ6" s="2"/>
       <c r="DR6" s="2"/>
-      <c r="DS6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="DT6" s="8"/>
+      <c r="DS6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="DT6" s="5"/>
       <c r="DU6" s="2"/>
       <c r="DV6" s="2"/>
       <c r="DW6" s="2"/>
       <c r="DX6" s="2"/>
-      <c r="DY6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="DZ6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="EA6" s="8" t="s">
+      <c r="DY6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="DZ6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="EA6" s="5" t="s">
         <v>256</v>
       </c>
       <c r="EB6" s="2"/>
@@ -3464,111 +3458,111 @@
       <c r="EQ6" s="2"/>
     </row>
     <row r="7" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="8" t="s">
+      <c r="K7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S7" s="8" t="s">
+      <c r="Q7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="T7" s="8"/>
+      <c r="T7" s="5"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="8"/>
+      <c r="W7" s="5"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC7" s="8"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC7" s="5"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="8" t="s">
+      <c r="AG7" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
-      <c r="AL7" s="8"/>
+      <c r="AL7" s="5"/>
       <c r="AM7" s="2"/>
-      <c r="AN7" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AO7" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AP7" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AQ7" s="8" t="s">
+      <c r="AN7" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AP7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
         <v>257</v>
       </c>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
-      <c r="AT7" s="8" t="s">
+      <c r="AT7" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU7" s="2"/>
-      <c r="AV7" s="8" t="s">
+      <c r="AV7" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
-      <c r="AY7" s="8"/>
+      <c r="AY7" s="5"/>
       <c r="AZ7" s="2"/>
-      <c r="BA7" s="8" t="s">
+      <c r="BA7" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BB7" s="2"/>
@@ -3585,20 +3579,20 @@
       <c r="BM7" s="2"/>
       <c r="BN7" s="2"/>
       <c r="BO7" s="2"/>
-      <c r="BP7" s="8"/>
+      <c r="BP7" s="5"/>
       <c r="BQ7" s="2"/>
-      <c r="BR7" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BS7" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BT7" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BU7" s="8"/>
+      <c r="BR7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BS7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BT7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BU7" s="5"/>
       <c r="BV7" s="2"/>
-      <c r="BW7" s="8"/>
+      <c r="BW7" s="5"/>
       <c r="BX7" s="2"/>
       <c r="BY7" s="2"/>
       <c r="BZ7" s="2"/>
@@ -3612,10 +3606,10 @@
       <c r="CH7" s="2"/>
       <c r="CI7" s="2"/>
       <c r="CJ7" s="2"/>
-      <c r="CK7" s="8"/>
+      <c r="CK7" s="5"/>
       <c r="CL7" s="2"/>
       <c r="CM7" s="2"/>
-      <c r="CN7" s="8" t="s">
+      <c r="CN7" s="5" t="s">
         <v>257</v>
       </c>
       <c r="CO7" s="2"/>
@@ -3623,7 +3617,7 @@
       <c r="CQ7" s="2"/>
       <c r="CR7" s="2"/>
       <c r="CS7" s="2"/>
-      <c r="CT7" s="8" t="s">
+      <c r="CT7" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CU7" s="2"/>
@@ -3631,11 +3625,11 @@
       <c r="CW7" s="2"/>
       <c r="CX7" s="2"/>
       <c r="CY7" s="2"/>
-      <c r="CZ7" s="8"/>
+      <c r="CZ7" s="5"/>
       <c r="DA7" s="2"/>
-      <c r="DB7" s="8"/>
-      <c r="DC7" s="8"/>
-      <c r="DD7" s="8"/>
+      <c r="DB7" s="5"/>
+      <c r="DC7" s="5"/>
+      <c r="DD7" s="5"/>
       <c r="DE7" s="2"/>
       <c r="DF7" s="2"/>
       <c r="DG7" s="2"/>
@@ -3655,17 +3649,17 @@
       <c r="DU7" s="2"/>
       <c r="DV7" s="2"/>
       <c r="DW7" s="2"/>
-      <c r="DX7" s="8" t="s">
+      <c r="DX7" s="5" t="s">
         <v>256</v>
       </c>
       <c r="DY7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="DZ7" s="8" t="s">
+      <c r="DZ7" s="5" t="s">
         <v>257</v>
       </c>
       <c r="EA7" s="2"/>
-      <c r="EB7" s="8" t="s">
+      <c r="EB7" s="5" t="s">
         <v>256</v>
       </c>
       <c r="EC7" s="2"/>
@@ -3685,75 +3679,75 @@
       <c r="EQ7" s="2"/>
     </row>
     <row r="8" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S8" s="8" t="s">
+      <c r="Q8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S8" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="W8" s="8" t="s">
+      <c r="V8" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>256</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -3762,28 +3756,28 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="8"/>
+      <c r="AL8" s="5"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="8" t="s">
+      <c r="AO8" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
-      <c r="AT8" s="8" t="s">
+      <c r="AT8" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
-      <c r="AW8" s="8" t="s">
+      <c r="AW8" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AX8" s="2"/>
-      <c r="AY8" s="8"/>
+      <c r="AY8" s="5"/>
       <c r="AZ8" s="2"/>
-      <c r="BA8" s="8"/>
+      <c r="BA8" s="5"/>
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
@@ -3794,20 +3788,20 @@
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
-      <c r="BL8" s="8" t="s">
+      <c r="BL8" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BM8" s="2"/>
       <c r="BN8" s="2"/>
       <c r="BO8" s="2"/>
-      <c r="BP8" s="8"/>
+      <c r="BP8" s="5"/>
       <c r="BQ8" s="2"/>
       <c r="BR8" s="2"/>
-      <c r="BS8" s="8"/>
+      <c r="BS8" s="5"/>
       <c r="BT8" s="2"/>
-      <c r="BU8" s="8"/>
+      <c r="BU8" s="5"/>
       <c r="BV8" s="2"/>
-      <c r="BW8" s="8"/>
+      <c r="BW8" s="5"/>
       <c r="BX8" s="2"/>
       <c r="BY8" s="2" t="s">
         <v>257</v>
@@ -3823,7 +3817,7 @@
       <c r="CH8" s="2"/>
       <c r="CI8" s="2"/>
       <c r="CJ8" s="2"/>
-      <c r="CK8" s="8"/>
+      <c r="CK8" s="5"/>
       <c r="CL8" s="2"/>
       <c r="CM8" s="2"/>
       <c r="CN8" s="2"/>
@@ -3832,7 +3826,7 @@
       <c r="CQ8" s="2"/>
       <c r="CR8" s="2"/>
       <c r="CS8" s="2"/>
-      <c r="CT8" s="8" t="s">
+      <c r="CT8" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CU8" s="2" t="s">
@@ -3844,11 +3838,11 @@
       </c>
       <c r="CX8" s="2"/>
       <c r="CY8" s="2"/>
-      <c r="CZ8" s="8"/>
+      <c r="CZ8" s="5"/>
       <c r="DA8" s="2"/>
-      <c r="DB8" s="8"/>
-      <c r="DC8" s="8"/>
-      <c r="DD8" s="8"/>
+      <c r="DB8" s="5"/>
+      <c r="DC8" s="5"/>
+      <c r="DD8" s="5"/>
       <c r="DE8" s="2"/>
       <c r="DF8" s="2"/>
       <c r="DG8" s="2"/>
@@ -3876,10 +3870,10 @@
       <c r="EC8" s="2"/>
       <c r="ED8" s="2"/>
       <c r="EE8" s="2"/>
-      <c r="EF8" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="EG8" s="8" t="s">
+      <c r="EF8" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="EG8" s="5" t="s">
         <v>256</v>
       </c>
       <c r="EH8" s="2"/>
@@ -3894,73 +3888,73 @@
       <c r="EQ8" s="2"/>
     </row>
     <row r="9" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="K9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S9" s="8" t="s">
+      <c r="Q9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S9" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="8" t="s">
+      <c r="V9" s="5" t="s">
         <v>136</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -3969,7 +3963,7 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
-      <c r="AL9" s="8"/>
+      <c r="AL9" s="5"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
@@ -3977,18 +3971,18 @@
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="8" t="s">
+      <c r="AT9" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
-      <c r="AW9" s="8" t="s">
+      <c r="AW9" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AX9" s="2"/>
-      <c r="AY9" s="8"/>
+      <c r="AY9" s="5"/>
       <c r="AZ9" s="2"/>
-      <c r="BA9" s="8"/>
+      <c r="BA9" s="5"/>
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
@@ -4003,14 +3997,14 @@
       <c r="BM9" s="2"/>
       <c r="BN9" s="2"/>
       <c r="BO9" s="2"/>
-      <c r="BP9" s="8"/>
+      <c r="BP9" s="5"/>
       <c r="BQ9" s="2"/>
       <c r="BR9" s="2"/>
-      <c r="BS9" s="8"/>
+      <c r="BS9" s="5"/>
       <c r="BT9" s="2"/>
-      <c r="BU9" s="8"/>
+      <c r="BU9" s="5"/>
       <c r="BV9" s="2"/>
-      <c r="BW9" s="8"/>
+      <c r="BW9" s="5"/>
       <c r="BX9" s="2"/>
       <c r="BY9" s="2" t="s">
         <v>136</v>
@@ -4026,7 +4020,7 @@
       <c r="CH9" s="2"/>
       <c r="CI9" s="2"/>
       <c r="CJ9" s="2"/>
-      <c r="CK9" s="8"/>
+      <c r="CK9" s="5"/>
       <c r="CL9" s="2"/>
       <c r="CM9" s="2"/>
       <c r="CN9" s="2"/>
@@ -4035,7 +4029,7 @@
       <c r="CQ9" s="2"/>
       <c r="CR9" s="2"/>
       <c r="CS9" s="2"/>
-      <c r="CT9" s="8" t="s">
+      <c r="CT9" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CU9" s="2" t="s">
@@ -4047,11 +4041,11 @@
       </c>
       <c r="CX9" s="2"/>
       <c r="CY9" s="2"/>
-      <c r="CZ9" s="8"/>
+      <c r="CZ9" s="5"/>
       <c r="DA9" s="2"/>
-      <c r="DB9" s="8"/>
-      <c r="DC9" s="8"/>
-      <c r="DD9" s="8"/>
+      <c r="DB9" s="5"/>
+      <c r="DC9" s="5"/>
+      <c r="DD9" s="5"/>
       <c r="DE9" s="2"/>
       <c r="DF9" s="2"/>
       <c r="DG9" s="2"/>
@@ -4070,7 +4064,7 @@
       <c r="DT9" s="2"/>
       <c r="DU9" s="2"/>
       <c r="DV9" s="2"/>
-      <c r="DW9" s="8" t="s">
+      <c r="DW9" s="5" t="s">
         <v>256</v>
       </c>
       <c r="DX9" s="2"/>
@@ -4095,76 +4089,76 @@
       <c r="EQ9" s="2"/>
     </row>
     <row r="10" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="8" t="s">
+      <c r="K10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S10" s="8" t="s">
+      <c r="Q10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="8" t="s">
+      <c r="V10" s="5" t="s">
         <v>136</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="8" t="s">
+      <c r="AF10" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AG10" s="2"/>
@@ -4172,28 +4166,28 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
-      <c r="AL10" s="8"/>
+      <c r="AL10" s="5"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="8" t="s">
+      <c r="AO10" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
-      <c r="AT10" s="8" t="s">
+      <c r="AT10" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
-      <c r="AW10" s="8" t="s">
+      <c r="AW10" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AX10" s="2"/>
-      <c r="AY10" s="8"/>
+      <c r="AY10" s="5"/>
       <c r="AZ10" s="2"/>
-      <c r="BA10" s="8"/>
+      <c r="BA10" s="5"/>
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
@@ -4208,14 +4202,14 @@
       <c r="BM10" s="2"/>
       <c r="BN10" s="2"/>
       <c r="BO10" s="2"/>
-      <c r="BP10" s="8"/>
+      <c r="BP10" s="5"/>
       <c r="BQ10" s="2"/>
       <c r="BR10" s="2"/>
-      <c r="BS10" s="8"/>
+      <c r="BS10" s="5"/>
       <c r="BT10" s="2"/>
-      <c r="BU10" s="8"/>
+      <c r="BU10" s="5"/>
       <c r="BV10" s="2"/>
-      <c r="BW10" s="8"/>
+      <c r="BW10" s="5"/>
       <c r="BX10" s="2"/>
       <c r="BY10" s="2" t="s">
         <v>136</v>
@@ -4231,7 +4225,7 @@
       <c r="CH10" s="2"/>
       <c r="CI10" s="2"/>
       <c r="CJ10" s="2"/>
-      <c r="CK10" s="8"/>
+      <c r="CK10" s="5"/>
       <c r="CL10" s="2"/>
       <c r="CM10" s="2"/>
       <c r="CN10" s="2"/>
@@ -4240,7 +4234,7 @@
       <c r="CQ10" s="2"/>
       <c r="CR10" s="2"/>
       <c r="CS10" s="2"/>
-      <c r="CT10" s="8" t="s">
+      <c r="CT10" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CU10" s="2" t="s">
@@ -4252,11 +4246,11 @@
       </c>
       <c r="CX10" s="2"/>
       <c r="CY10" s="2"/>
-      <c r="CZ10" s="8"/>
+      <c r="CZ10" s="5"/>
       <c r="DA10" s="2"/>
-      <c r="DB10" s="8"/>
-      <c r="DC10" s="8"/>
-      <c r="DD10" s="8"/>
+      <c r="DB10" s="5"/>
+      <c r="DC10" s="5"/>
+      <c r="DD10" s="5"/>
       <c r="DE10" s="2"/>
       <c r="DF10" s="2"/>
       <c r="DG10" s="2"/>
@@ -4298,78 +4292,78 @@
       <c r="EQ10" s="2"/>
     </row>
     <row r="11" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>261348</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="8" t="s">
+      <c r="K11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="Q11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S11" s="8" t="s">
+      <c r="Q11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S11" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="W11" s="8" t="s">
+      <c r="V11" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="W11" s="5" t="s">
         <v>256</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
-      <c r="AF11" s="8" t="s">
+      <c r="AF11" s="5" t="s">
         <v>257</v>
       </c>
       <c r="AG11" s="2"/>
@@ -4377,7 +4371,7 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
-      <c r="AL11" s="8"/>
+      <c r="AL11" s="5"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
@@ -4385,18 +4379,18 @@
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
-      <c r="AT11" s="8" t="s">
+      <c r="AT11" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
-      <c r="AW11" s="8" t="s">
+      <c r="AW11" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AX11" s="2"/>
-      <c r="AY11" s="8"/>
+      <c r="AY11" s="5"/>
       <c r="AZ11" s="2"/>
-      <c r="BA11" s="8"/>
+      <c r="BA11" s="5"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
@@ -4407,20 +4401,20 @@
       <c r="BI11" s="2"/>
       <c r="BJ11" s="2"/>
       <c r="BK11" s="2"/>
-      <c r="BL11" s="8" t="s">
+      <c r="BL11" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BM11" s="2"/>
       <c r="BN11" s="2"/>
       <c r="BO11" s="2"/>
-      <c r="BP11" s="8"/>
+      <c r="BP11" s="5"/>
       <c r="BQ11" s="2"/>
       <c r="BR11" s="2"/>
-      <c r="BS11" s="8"/>
+      <c r="BS11" s="5"/>
       <c r="BT11" s="2"/>
-      <c r="BU11" s="8"/>
+      <c r="BU11" s="5"/>
       <c r="BV11" s="2"/>
-      <c r="BW11" s="8"/>
+      <c r="BW11" s="5"/>
       <c r="BX11" s="2"/>
       <c r="BY11" s="2" t="s">
         <v>257</v>
@@ -4436,7 +4430,7 @@
       <c r="CH11" s="2"/>
       <c r="CI11" s="2"/>
       <c r="CJ11" s="2"/>
-      <c r="CK11" s="8"/>
+      <c r="CK11" s="5"/>
       <c r="CL11" s="2"/>
       <c r="CM11" s="2"/>
       <c r="CN11" s="2"/>
@@ -4445,7 +4439,7 @@
       <c r="CQ11" s="2"/>
       <c r="CR11" s="2"/>
       <c r="CS11" s="2"/>
-      <c r="CT11" s="8" t="s">
+      <c r="CT11" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CU11" s="2" t="s">
@@ -4457,11 +4451,11 @@
       </c>
       <c r="CX11" s="2"/>
       <c r="CY11" s="2"/>
-      <c r="CZ11" s="8"/>
+      <c r="CZ11" s="5"/>
       <c r="DA11" s="2"/>
-      <c r="DB11" s="8"/>
-      <c r="DC11" s="8"/>
-      <c r="DD11" s="8"/>
+      <c r="DB11" s="5"/>
+      <c r="DC11" s="5"/>
+      <c r="DD11" s="5"/>
       <c r="DE11" s="2"/>
       <c r="DF11" s="2"/>
       <c r="DG11" s="2"/>
@@ -4480,7 +4474,7 @@
       <c r="DT11" s="2"/>
       <c r="DU11" s="2"/>
       <c r="DV11" s="2"/>
-      <c r="DW11" s="8" t="s">
+      <c r="DW11" s="5" t="s">
         <v>256</v>
       </c>
       <c r="DX11" s="2"/>
@@ -4492,7 +4486,7 @@
       <c r="ED11" s="2"/>
       <c r="EE11" s="2"/>
       <c r="EF11" s="2"/>
-      <c r="EG11" s="8" t="s">
+      <c r="EG11" s="5" t="s">
         <v>256</v>
       </c>
       <c r="EH11" s="2"/>
@@ -4507,78 +4501,78 @@
       <c r="EQ11" s="2"/>
     </row>
     <row r="12" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>263220</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L12" s="8" t="s">
+      <c r="K12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q12" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S12" s="8" t="s">
+      <c r="Q12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S12" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W12" s="8" t="s">
+      <c r="V12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="W12" s="5" t="s">
         <v>256</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="8" t="s">
+      <c r="AF12" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AG12" s="2"/>
@@ -4586,28 +4580,28 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
-      <c r="AL12" s="8"/>
+      <c r="AL12" s="5"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
-      <c r="AO12" s="8" t="s">
+      <c r="AO12" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
-      <c r="AT12" s="8" t="s">
+      <c r="AT12" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
-      <c r="AW12" s="8" t="s">
+      <c r="AW12" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AX12" s="2"/>
-      <c r="AY12" s="8"/>
+      <c r="AY12" s="5"/>
       <c r="AZ12" s="2"/>
-      <c r="BA12" s="8"/>
+      <c r="BA12" s="5"/>
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
@@ -4618,22 +4612,22 @@
       <c r="BI12" s="2"/>
       <c r="BJ12" s="2"/>
       <c r="BK12" s="2"/>
-      <c r="BL12" s="8" t="s">
+      <c r="BL12" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BM12" s="2"/>
       <c r="BN12" s="2"/>
-      <c r="BO12" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="BP12" s="8"/>
+      <c r="BO12" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="BP12" s="5"/>
       <c r="BQ12" s="2"/>
       <c r="BR12" s="2"/>
-      <c r="BS12" s="8"/>
+      <c r="BS12" s="5"/>
       <c r="BT12" s="2"/>
-      <c r="BU12" s="8"/>
+      <c r="BU12" s="5"/>
       <c r="BV12" s="2"/>
-      <c r="BW12" s="8"/>
+      <c r="BW12" s="5"/>
       <c r="BX12" s="2"/>
       <c r="BY12" s="2" t="s">
         <v>257</v>
@@ -4649,7 +4643,7 @@
       <c r="CH12" s="2"/>
       <c r="CI12" s="2"/>
       <c r="CJ12" s="2"/>
-      <c r="CK12" s="8"/>
+      <c r="CK12" s="5"/>
       <c r="CL12" s="2"/>
       <c r="CM12" s="2"/>
       <c r="CN12" s="2"/>
@@ -4658,7 +4652,7 @@
       <c r="CQ12" s="2"/>
       <c r="CR12" s="2"/>
       <c r="CS12" s="2"/>
-      <c r="CT12" s="8" t="s">
+      <c r="CT12" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CU12" s="2" t="s">
@@ -4670,11 +4664,11 @@
       </c>
       <c r="CX12" s="2"/>
       <c r="CY12" s="2"/>
-      <c r="CZ12" s="8"/>
+      <c r="CZ12" s="5"/>
       <c r="DA12" s="2"/>
-      <c r="DB12" s="8"/>
-      <c r="DC12" s="8"/>
-      <c r="DD12" s="8"/>
+      <c r="DB12" s="5"/>
+      <c r="DC12" s="5"/>
+      <c r="DD12" s="5"/>
       <c r="DE12" s="2"/>
       <c r="DF12" s="2"/>
       <c r="DG12" s="2"/>
@@ -4697,14 +4691,14 @@
       <c r="DX12" s="2"/>
       <c r="DY12" s="2"/>
       <c r="DZ12" s="2"/>
-      <c r="EA12" s="8" t="s">
+      <c r="EA12" s="5" t="s">
         <v>256</v>
       </c>
       <c r="EB12" s="2"/>
       <c r="EC12" s="2"/>
       <c r="ED12" s="2"/>
       <c r="EE12" s="2"/>
-      <c r="EF12" s="8" t="s">
+      <c r="EF12" s="5" t="s">
         <v>256</v>
       </c>
       <c r="EG12" s="2"/>
@@ -4720,78 +4714,78 @@
       <c r="EQ12" s="2"/>
     </row>
     <row r="13" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="8" t="s">
+      <c r="K13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q13" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S13" s="8" t="s">
+      <c r="Q13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S13" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="W13" s="8" t="s">
+      <c r="V13" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="W13" s="5" t="s">
         <v>256</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="8" t="s">
+      <c r="AF13" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AG13" s="2"/>
@@ -4799,28 +4793,28 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
-      <c r="AL13" s="8"/>
+      <c r="AL13" s="5"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
-      <c r="AO13" s="8" t="s">
+      <c r="AO13" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
-      <c r="AT13" s="8" t="s">
+      <c r="AT13" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
-      <c r="AW13" s="8" t="s">
+      <c r="AW13" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AX13" s="2"/>
-      <c r="AY13" s="8"/>
+      <c r="AY13" s="5"/>
       <c r="AZ13" s="2"/>
-      <c r="BA13" s="8"/>
+      <c r="BA13" s="5"/>
       <c r="BB13" s="2"/>
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
@@ -4831,20 +4825,20 @@
       <c r="BI13" s="2"/>
       <c r="BJ13" s="2"/>
       <c r="BK13" s="2"/>
-      <c r="BL13" s="8" t="s">
+      <c r="BL13" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BM13" s="2"/>
       <c r="BN13" s="2"/>
       <c r="BO13" s="2"/>
-      <c r="BP13" s="8"/>
+      <c r="BP13" s="5"/>
       <c r="BQ13" s="2"/>
       <c r="BR13" s="2"/>
-      <c r="BS13" s="8"/>
+      <c r="BS13" s="5"/>
       <c r="BT13" s="2"/>
-      <c r="BU13" s="8"/>
+      <c r="BU13" s="5"/>
       <c r="BV13" s="2"/>
-      <c r="BW13" s="8"/>
+      <c r="BW13" s="5"/>
       <c r="BX13" s="2"/>
       <c r="BY13" s="2" t="s">
         <v>136</v>
@@ -4860,7 +4854,7 @@
       <c r="CH13" s="2"/>
       <c r="CI13" s="2"/>
       <c r="CJ13" s="2"/>
-      <c r="CK13" s="8"/>
+      <c r="CK13" s="5"/>
       <c r="CL13" s="2"/>
       <c r="CM13" s="2"/>
       <c r="CN13" s="2"/>
@@ -4869,7 +4863,7 @@
       <c r="CQ13" s="2"/>
       <c r="CR13" s="2"/>
       <c r="CS13" s="2"/>
-      <c r="CT13" s="8" t="s">
+      <c r="CT13" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CU13" s="2" t="s">
@@ -4881,11 +4875,11 @@
       </c>
       <c r="CX13" s="2"/>
       <c r="CY13" s="2"/>
-      <c r="CZ13" s="8"/>
+      <c r="CZ13" s="5"/>
       <c r="DA13" s="2"/>
-      <c r="DB13" s="8"/>
-      <c r="DC13" s="8"/>
-      <c r="DD13" s="8"/>
+      <c r="DB13" s="5"/>
+      <c r="DC13" s="5"/>
+      <c r="DD13" s="5"/>
       <c r="DE13" s="2"/>
       <c r="DF13" s="2"/>
       <c r="DG13" s="2"/>
@@ -4927,109 +4921,109 @@
       <c r="EQ13" s="2"/>
     </row>
     <row r="14" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S14" s="8" t="s">
+      <c r="Q14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S14" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="8" t="s">
+      <c r="W14" s="5" t="s">
         <v>256</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC14" s="8"/>
+      <c r="Z14" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC14" s="5"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG14" s="8" t="s">
+      <c r="AF14" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG14" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
-      <c r="AL14" s="8"/>
+      <c r="AL14" s="5"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
-      <c r="AO14" s="8"/>
+      <c r="AO14" s="5"/>
       <c r="AP14" s="2"/>
-      <c r="AQ14" s="8" t="s">
+      <c r="AQ14" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
-      <c r="AT14" s="8" t="s">
+      <c r="AT14" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
-      <c r="AY14" s="8"/>
+      <c r="AY14" s="5"/>
       <c r="AZ14" s="2"/>
-      <c r="BA14" s="8" t="s">
+      <c r="BA14" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BB14" s="2"/>
@@ -5046,23 +5040,23 @@
       <c r="BM14" s="2"/>
       <c r="BN14" s="2"/>
       <c r="BO14" s="2"/>
-      <c r="BP14" s="8"/>
+      <c r="BP14" s="5"/>
       <c r="BQ14" s="2"/>
       <c r="BR14" s="2"/>
-      <c r="BS14" s="8"/>
-      <c r="BT14" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BU14" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BV14" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BW14" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BX14" s="8" t="s">
+      <c r="BS14" s="5"/>
+      <c r="BT14" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BU14" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BV14" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BW14" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BX14" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BY14" s="2"/>
@@ -5070,7 +5064,7 @@
       <c r="CA14" s="2"/>
       <c r="CB14" s="2"/>
       <c r="CC14" s="2"/>
-      <c r="CD14" s="8" t="s">
+      <c r="CD14" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CE14" s="2"/>
@@ -5079,7 +5073,7 @@
       <c r="CH14" s="2"/>
       <c r="CI14" s="2"/>
       <c r="CJ14" s="2"/>
-      <c r="CK14" s="8"/>
+      <c r="CK14" s="5"/>
       <c r="CL14" s="2"/>
       <c r="CM14" s="2"/>
       <c r="CN14" s="2"/>
@@ -5088,21 +5082,21 @@
       <c r="CQ14" s="2"/>
       <c r="CR14" s="2"/>
       <c r="CS14" s="2"/>
-      <c r="CT14" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="CU14" s="8" t="s">
+      <c r="CT14" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="CU14" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="CV14" s="8"/>
-      <c r="CW14" s="8"/>
-      <c r="CX14" s="8"/>
+      <c r="CV14" s="5"/>
+      <c r="CW14" s="5"/>
+      <c r="CX14" s="5"/>
       <c r="CY14" s="2"/>
-      <c r="CZ14" s="8"/>
+      <c r="CZ14" s="5"/>
       <c r="DA14" s="2"/>
-      <c r="DB14" s="8"/>
-      <c r="DC14" s="8"/>
-      <c r="DD14" s="8"/>
+      <c r="DB14" s="5"/>
+      <c r="DC14" s="5"/>
+      <c r="DD14" s="5"/>
       <c r="DE14" s="2"/>
       <c r="DF14" s="2"/>
       <c r="DG14" s="2"/>
@@ -5134,121 +5128,121 @@
       <c r="EG14" s="2"/>
       <c r="EH14" s="2"/>
       <c r="EI14" s="2"/>
-      <c r="EJ14" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="EK14" s="8" t="s">
+      <c r="EJ14" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="EK14" s="5" t="s">
         <v>256</v>
       </c>
       <c r="EL14" s="2"/>
       <c r="EM14" s="2"/>
       <c r="EN14" s="2"/>
-      <c r="EO14" s="8" t="s">
+      <c r="EO14" s="5" t="s">
         <v>256</v>
       </c>
       <c r="EP14" s="2"/>
       <c r="EQ14" s="2"/>
     </row>
     <row r="15" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q15" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S15" s="8" t="s">
+      <c r="Q15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S15" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="8" t="s">
+      <c r="W15" s="5" t="s">
         <v>256</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
+      <c r="Z15" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG15" s="8" t="s">
+      <c r="AF15" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG15" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
-      <c r="AL15" s="8"/>
+      <c r="AL15" s="5"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
-      <c r="AO15" s="8" t="s">
+      <c r="AO15" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
-      <c r="AT15" s="8"/>
+      <c r="AT15" s="5"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
-      <c r="AY15" s="8"/>
+      <c r="AY15" s="5"/>
       <c r="AZ15" s="2"/>
-      <c r="BA15" s="8" t="s">
+      <c r="BA15" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BB15" s="2"/>
@@ -5265,19 +5259,19 @@
       <c r="BM15" s="2"/>
       <c r="BN15" s="2"/>
       <c r="BO15" s="2"/>
-      <c r="BP15" s="8"/>
-      <c r="BQ15" s="8" t="s">
+      <c r="BP15" s="5"/>
+      <c r="BQ15" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BR15" s="2"/>
-      <c r="BS15" s="8"/>
+      <c r="BS15" s="5"/>
       <c r="BT15" s="2"/>
-      <c r="BU15" s="8"/>
+      <c r="BU15" s="5"/>
       <c r="BV15" s="2"/>
-      <c r="BW15" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BX15" s="8" t="s">
+      <c r="BW15" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BX15" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BY15" s="2"/>
@@ -5285,14 +5279,14 @@
       <c r="CA15" s="2"/>
       <c r="CB15" s="2"/>
       <c r="CC15" s="2"/>
-      <c r="CD15" s="8"/>
+      <c r="CD15" s="5"/>
       <c r="CE15" s="2"/>
       <c r="CF15" s="2"/>
       <c r="CG15" s="2"/>
       <c r="CH15" s="2"/>
       <c r="CI15" s="2"/>
       <c r="CJ15" s="2"/>
-      <c r="CK15" s="8"/>
+      <c r="CK15" s="5"/>
       <c r="CL15" s="2"/>
       <c r="CM15" s="2"/>
       <c r="CN15" s="2"/>
@@ -5301,21 +5295,21 @@
       <c r="CQ15" s="2"/>
       <c r="CR15" s="2"/>
       <c r="CS15" s="2"/>
-      <c r="CT15" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="CU15" s="8" t="s">
+      <c r="CT15" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="CU15" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="CV15" s="8"/>
-      <c r="CW15" s="8"/>
-      <c r="CX15" s="8"/>
+      <c r="CV15" s="5"/>
+      <c r="CW15" s="5"/>
+      <c r="CX15" s="5"/>
       <c r="CY15" s="2"/>
-      <c r="CZ15" s="8"/>
+      <c r="CZ15" s="5"/>
       <c r="DA15" s="2"/>
-      <c r="DB15" s="8"/>
-      <c r="DC15" s="8"/>
-      <c r="DD15" s="8"/>
+      <c r="DB15" s="5"/>
+      <c r="DC15" s="5"/>
+      <c r="DD15" s="5"/>
       <c r="DE15" s="2"/>
       <c r="DF15" s="2"/>
       <c r="DG15" s="2"/>
@@ -5352,116 +5346,116 @@
       <c r="EL15" s="2"/>
       <c r="EM15" s="2"/>
       <c r="EN15" s="2"/>
-      <c r="EO15" s="8" t="s">
+      <c r="EO15" s="5" t="s">
         <v>257</v>
       </c>
       <c r="EP15" s="2"/>
       <c r="EQ15" s="2"/>
     </row>
     <row r="16" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q16" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S16" s="8" t="s">
+      <c r="Q16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S16" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="8" t="s">
+      <c r="W16" s="5" t="s">
         <v>256</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC16" s="8"/>
+      <c r="Z16" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC16" s="5"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG16" s="8" t="s">
+      <c r="AF16" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG16" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="8"/>
+      <c r="AL16" s="5"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="8" t="s">
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
-      <c r="AT16" s="8" t="s">
+      <c r="AT16" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
-      <c r="AY16" s="8"/>
+      <c r="AY16" s="5"/>
       <c r="AZ16" s="2"/>
-      <c r="BA16" s="8" t="s">
+      <c r="BA16" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BB16" s="2"/>
@@ -5478,23 +5472,23 @@
       <c r="BM16" s="2"/>
       <c r="BN16" s="2"/>
       <c r="BO16" s="2"/>
-      <c r="BP16" s="8"/>
-      <c r="BQ16" s="8" t="s">
+      <c r="BP16" s="5"/>
+      <c r="BQ16" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BR16" s="2"/>
-      <c r="BS16" s="8"/>
-      <c r="BT16" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BU16" s="8" t="s">
+      <c r="BS16" s="5"/>
+      <c r="BT16" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BU16" s="5" t="s">
         <v>257</v>
       </c>
       <c r="BV16" s="2"/>
-      <c r="BW16" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BX16" s="8" t="s">
+      <c r="BW16" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BX16" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BY16" s="2"/>
@@ -5502,14 +5496,14 @@
       <c r="CA16" s="2"/>
       <c r="CB16" s="2"/>
       <c r="CC16" s="2"/>
-      <c r="CD16" s="8"/>
+      <c r="CD16" s="5"/>
       <c r="CE16" s="2"/>
       <c r="CF16" s="2"/>
       <c r="CG16" s="2"/>
       <c r="CH16" s="2"/>
       <c r="CI16" s="2"/>
       <c r="CJ16" s="2"/>
-      <c r="CK16" s="8"/>
+      <c r="CK16" s="5"/>
       <c r="CL16" s="2"/>
       <c r="CM16" s="2"/>
       <c r="CN16" s="2"/>
@@ -5518,21 +5512,21 @@
       <c r="CQ16" s="2"/>
       <c r="CR16" s="2"/>
       <c r="CS16" s="2"/>
-      <c r="CT16" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="CU16" s="8" t="s">
+      <c r="CT16" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="CU16" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="CV16" s="8"/>
-      <c r="CW16" s="8"/>
-      <c r="CX16" s="8"/>
+      <c r="CV16" s="5"/>
+      <c r="CW16" s="5"/>
+      <c r="CX16" s="5"/>
       <c r="CY16" s="2"/>
-      <c r="CZ16" s="8"/>
+      <c r="CZ16" s="5"/>
       <c r="DA16" s="2"/>
-      <c r="DB16" s="8"/>
-      <c r="DC16" s="8"/>
-      <c r="DD16" s="8"/>
+      <c r="DB16" s="5"/>
+      <c r="DC16" s="5"/>
+      <c r="DD16" s="5"/>
       <c r="DE16" s="2"/>
       <c r="DF16" s="2"/>
       <c r="DG16" s="2"/>
@@ -5562,7 +5556,7 @@
       <c r="EE16" s="2"/>
       <c r="EF16" s="2"/>
       <c r="EG16" s="2"/>
-      <c r="EH16" s="8" t="s">
+      <c r="EH16" s="5" t="s">
         <v>256</v>
       </c>
       <c r="EI16" s="2"/>
@@ -5571,116 +5565,116 @@
       <c r="EL16" s="2"/>
       <c r="EM16" s="2"/>
       <c r="EN16" s="2"/>
-      <c r="EO16" s="8" t="s">
+      <c r="EO16" s="5" t="s">
         <v>257</v>
       </c>
       <c r="EP16" s="2"/>
       <c r="EQ16" s="2"/>
     </row>
     <row r="17" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="K17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S17" s="8" t="s">
+      <c r="Q17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S17" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="8" t="s">
+      <c r="W17" s="5" t="s">
         <v>256</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC17" s="8"/>
+      <c r="Z17" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC17" s="5"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG17" s="8" t="s">
+      <c r="AF17" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG17" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
-      <c r="AL17" s="8"/>
+      <c r="AL17" s="5"/>
       <c r="AM17" s="2"/>
-      <c r="AN17" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AO17" s="8"/>
+      <c r="AN17" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO17" s="5"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
-      <c r="AT17" s="8" t="s">
+      <c r="AT17" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
-      <c r="AY17" s="8"/>
+      <c r="AY17" s="5"/>
       <c r="AZ17" s="2"/>
-      <c r="BA17" s="8" t="s">
+      <c r="BA17" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BB17" s="2"/>
@@ -5697,25 +5691,25 @@
       <c r="BM17" s="2"/>
       <c r="BN17" s="2"/>
       <c r="BO17" s="2"/>
-      <c r="BP17" s="8"/>
-      <c r="BQ17" s="8" t="s">
+      <c r="BP17" s="5"/>
+      <c r="BQ17" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BR17" s="2"/>
-      <c r="BS17" s="8"/>
-      <c r="BT17" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BU17" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BV17" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BW17" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BX17" s="8" t="s">
+      <c r="BS17" s="5"/>
+      <c r="BT17" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BU17" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BV17" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BW17" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BX17" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BY17" s="2"/>
@@ -5723,7 +5717,7 @@
       <c r="CA17" s="2"/>
       <c r="CB17" s="2"/>
       <c r="CC17" s="2"/>
-      <c r="CD17" s="8" t="s">
+      <c r="CD17" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CE17" s="2"/>
@@ -5732,7 +5726,7 @@
       <c r="CH17" s="2"/>
       <c r="CI17" s="2"/>
       <c r="CJ17" s="2"/>
-      <c r="CK17" s="8"/>
+      <c r="CK17" s="5"/>
       <c r="CL17" s="2"/>
       <c r="CM17" s="2"/>
       <c r="CN17" s="2"/>
@@ -5741,21 +5735,21 @@
       <c r="CQ17" s="2"/>
       <c r="CR17" s="2"/>
       <c r="CS17" s="2"/>
-      <c r="CT17" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="CU17" s="8" t="s">
+      <c r="CT17" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="CU17" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="CV17" s="8"/>
-      <c r="CW17" s="8"/>
-      <c r="CX17" s="8"/>
+      <c r="CV17" s="5"/>
+      <c r="CW17" s="5"/>
+      <c r="CX17" s="5"/>
       <c r="CY17" s="2"/>
-      <c r="CZ17" s="8"/>
+      <c r="CZ17" s="5"/>
       <c r="DA17" s="2"/>
-      <c r="DB17" s="8"/>
-      <c r="DC17" s="8"/>
-      <c r="DD17" s="8"/>
+      <c r="DB17" s="5"/>
+      <c r="DC17" s="5"/>
+      <c r="DD17" s="5"/>
       <c r="DE17" s="2"/>
       <c r="DF17" s="2"/>
       <c r="DG17" s="2"/>
@@ -5789,119 +5783,119 @@
       <c r="EI17" s="2"/>
       <c r="EJ17" s="2"/>
       <c r="EK17" s="2"/>
-      <c r="EL17" s="8" t="s">
+      <c r="EL17" s="5" t="s">
         <v>256</v>
       </c>
       <c r="EM17" s="2"/>
       <c r="EN17" s="2"/>
-      <c r="EO17" s="8" t="s">
+      <c r="EO17" s="5" t="s">
         <v>257</v>
       </c>
       <c r="EP17" s="2"/>
       <c r="EQ17" s="2"/>
     </row>
     <row r="18" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L18" s="8" t="s">
+      <c r="K18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S18" s="8" t="s">
+      <c r="Q18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S18" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="8" t="s">
+      <c r="W18" s="5" t="s">
         <v>256</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
+      <c r="Z18" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG18" s="8" t="s">
+      <c r="AF18" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG18" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
-      <c r="AL18" s="8"/>
+      <c r="AL18" s="5"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
-      <c r="AO18" s="8"/>
+      <c r="AO18" s="5"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
-      <c r="AT18" s="8" t="s">
+      <c r="AT18" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
-      <c r="AY18" s="8" t="s">
+      <c r="AY18" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AZ18" s="2"/>
-      <c r="BA18" s="8" t="s">
+      <c r="BA18" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BB18" s="2"/>
@@ -5918,23 +5912,23 @@
       <c r="BM18" s="2"/>
       <c r="BN18" s="2"/>
       <c r="BO18" s="2"/>
-      <c r="BP18" s="8"/>
+      <c r="BP18" s="5"/>
       <c r="BQ18" s="2"/>
       <c r="BR18" s="2"/>
-      <c r="BS18" s="8"/>
-      <c r="BT18" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BU18" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="BV18" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BW18" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BX18" s="8" t="s">
+      <c r="BS18" s="5"/>
+      <c r="BT18" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BU18" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV18" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BW18" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BX18" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BY18" s="2"/>
@@ -5942,14 +5936,14 @@
       <c r="CA18" s="2"/>
       <c r="CB18" s="2"/>
       <c r="CC18" s="2"/>
-      <c r="CD18" s="8"/>
+      <c r="CD18" s="5"/>
       <c r="CE18" s="2"/>
       <c r="CF18" s="2"/>
       <c r="CG18" s="2"/>
       <c r="CH18" s="2"/>
       <c r="CI18" s="2"/>
       <c r="CJ18" s="2"/>
-      <c r="CK18" s="8"/>
+      <c r="CK18" s="5"/>
       <c r="CL18" s="2"/>
       <c r="CM18" s="2"/>
       <c r="CN18" s="2"/>
@@ -5958,21 +5952,21 @@
       <c r="CQ18" s="2"/>
       <c r="CR18" s="2"/>
       <c r="CS18" s="2"/>
-      <c r="CT18" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="CU18" s="8" t="s">
+      <c r="CT18" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="CU18" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="CV18" s="8"/>
-      <c r="CW18" s="8"/>
-      <c r="CX18" s="8"/>
+      <c r="CV18" s="5"/>
+      <c r="CW18" s="5"/>
+      <c r="CX18" s="5"/>
       <c r="CY18" s="2"/>
-      <c r="CZ18" s="8"/>
+      <c r="CZ18" s="5"/>
       <c r="DA18" s="2"/>
-      <c r="DB18" s="8"/>
-      <c r="DC18" s="8"/>
-      <c r="DD18" s="8"/>
+      <c r="DB18" s="5"/>
+      <c r="DC18" s="5"/>
+      <c r="DD18" s="5"/>
       <c r="DE18" s="2"/>
       <c r="DF18" s="2"/>
       <c r="DG18" s="2"/>
@@ -6007,69 +6001,69 @@
       <c r="EJ18" s="2"/>
       <c r="EK18" s="2"/>
       <c r="EL18" s="2"/>
-      <c r="EM18" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="EN18" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="EO18" s="8" t="s">
+      <c r="EM18" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="EN18" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="EO18" s="5" t="s">
         <v>257</v>
       </c>
       <c r="EP18" s="2"/>
       <c r="EQ18" s="2"/>
     </row>
     <row r="19" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>326</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="Q19" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R19" s="8" t="s">
+      <c r="Q19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>257</v>
       </c>
       <c r="S19" s="2"/>
@@ -6089,7 +6083,7 @@
       <c r="AE19" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="AF19" s="8" t="s">
+      <c r="AF19" s="5" t="s">
         <v>328</v>
       </c>
       <c r="AG19" s="2"/>
@@ -6105,13 +6099,13 @@
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
-      <c r="AT19" s="8" t="s">
+      <c r="AT19" s="5" t="s">
         <v>334</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
-      <c r="AX19" s="8" t="s">
+      <c r="AX19" s="5" t="s">
         <v>334</v>
       </c>
       <c r="AY19" s="2"/>
@@ -6148,10 +6142,10 @@
       <c r="BT19" s="2"/>
       <c r="BU19" s="2"/>
       <c r="BV19" s="2"/>
-      <c r="BW19" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BX19" s="8" t="s">
+      <c r="BW19" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BX19" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BY19" s="2" t="s">
@@ -6179,11 +6173,11 @@
       <c r="CS19" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="CT19" s="8" t="s">
+      <c r="CT19" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="CU19" s="8"/>
-      <c r="CV19" s="8"/>
+      <c r="CU19" s="5"/>
+      <c r="CV19" s="5"/>
       <c r="CW19" s="2"/>
       <c r="CX19" s="2"/>
       <c r="CY19" s="2"/>
@@ -6239,54 +6233,54 @@
       <c r="EQ19" s="2"/>
     </row>
     <row r="20" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>327</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q20" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R20" s="8" t="s">
+      <c r="Q20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>257</v>
       </c>
       <c r="S20" s="2"/>
@@ -6304,7 +6298,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="8" t="s">
+      <c r="AF20" s="5" t="s">
         <v>277</v>
       </c>
       <c r="AG20" s="2"/>
@@ -6320,7 +6314,7 @@
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
-      <c r="AT20" s="8" t="s">
+      <c r="AT20" s="5" t="s">
         <v>257</v>
       </c>
       <c r="AU20" s="2"/>
@@ -6331,7 +6325,7 @@
       </c>
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
-      <c r="BA20" s="8" t="s">
+      <c r="BA20" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BB20" s="2"/>
@@ -6355,10 +6349,10 @@
       <c r="BT20" s="2"/>
       <c r="BU20" s="2"/>
       <c r="BV20" s="2"/>
-      <c r="BW20" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="BX20" s="8" t="s">
+      <c r="BW20" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BX20" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BY20" s="2" t="s">
@@ -6384,13 +6378,13 @@
       <c r="CQ20" s="2"/>
       <c r="CR20" s="2"/>
       <c r="CS20" s="2"/>
-      <c r="CT20" s="8" t="s">
+      <c r="CT20" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="CU20" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="CV20" s="8"/>
+      <c r="CU20" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="CV20" s="5"/>
       <c r="CW20" s="2"/>
       <c r="CX20" s="2"/>
       <c r="CY20" s="2"/>
@@ -6444,56 +6438,56 @@
       <c r="EQ20" s="2"/>
     </row>
     <row r="21" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>340</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="5" t="s">
         <v>346</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="Q21" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R21" s="8" t="s">
+      <c r="Q21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R21" s="5" t="s">
         <v>257</v>
       </c>
       <c r="S21" s="2"/>
@@ -6570,7 +6564,7 @@
       <c r="BT21" s="2"/>
       <c r="BU21" s="2"/>
       <c r="BV21" s="2"/>
-      <c r="BW21" s="8" t="s">
+      <c r="BW21" s="5" t="s">
         <v>257</v>
       </c>
       <c r="BX21" s="2"/>
@@ -6663,54 +6657,54 @@
       </c>
     </row>
     <row r="22" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>343</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="5" t="s">
         <v>346</v>
       </c>
       <c r="L22" s="2"/>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="P22" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R22" s="8" t="s">
+      <c r="Q22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>257</v>
       </c>
       <c r="S22" s="2"/>
@@ -6738,7 +6732,7 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
-      <c r="AN22" s="8" t="s">
+      <c r="AN22" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AO22" s="2" t="s">
@@ -6747,12 +6741,12 @@
       <c r="AP22" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AQ22" s="8" t="s">
+      <c r="AQ22" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
-      <c r="AT22" s="8" t="s">
+      <c r="AT22" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AU22" s="2"/>
@@ -6787,7 +6781,7 @@
       <c r="BT22" s="2"/>
       <c r="BU22" s="2"/>
       <c r="BV22" s="2"/>
-      <c r="BW22" s="8" t="s">
+      <c r="BW22" s="5" t="s">
         <v>257</v>
       </c>
       <c r="BX22" s="2"/>
@@ -6813,10 +6807,10 @@
       <c r="CR22" s="2"/>
       <c r="CS22" s="2"/>
       <c r="CT22" s="2"/>
-      <c r="CU22" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="CV22" s="8"/>
+      <c r="CU22" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="CV22" s="5"/>
       <c r="CW22" s="2"/>
       <c r="CX22" s="2"/>
       <c r="CY22" s="2"/>
@@ -6880,59 +6874,59 @@
       </c>
     </row>
     <row r="23" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>362</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="8" t="s">
+      <c r="K23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P23" s="8" t="s">
+      <c r="P23" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="Q23" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S23" s="8" t="s">
+      <c r="Q23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S23" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T23" s="2"/>
@@ -6959,7 +6953,7 @@
       <c r="AE23" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AF23" s="8" t="s">
+      <c r="AF23" s="5" t="s">
         <v>364</v>
       </c>
       <c r="AG23" s="2"/>
@@ -6986,16 +6980,16 @@
       <c r="AR23" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AS23" s="8" t="s">
+      <c r="AS23" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="AT23" s="8" t="s">
+      <c r="AT23" s="5" t="s">
         <v>337</v>
       </c>
       <c r="AU23" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AV23" s="8" t="s">
+      <c r="AV23" s="5" t="s">
         <v>337</v>
       </c>
       <c r="AW23" s="2"/>
@@ -7117,56 +7111,56 @@
       <c r="EQ23" s="2"/>
     </row>
     <row r="24" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>363</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="8" t="s">
+      <c r="K24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="O24" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P24" s="8" t="s">
+      <c r="P24" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="Q24" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R24" s="8" t="s">
+      <c r="Q24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R24" s="5" t="s">
         <v>257</v>
       </c>
       <c r="S24" s="2" t="s">
@@ -7192,7 +7186,7 @@
       <c r="AE24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AF24" s="8" t="s">
+      <c r="AF24" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AG24" s="2"/>
@@ -7342,29 +7336,29 @@
       <c r="EQ24" s="2"/>
     </row>
     <row r="25" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="5" t="s">
         <v>253</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -7379,22 +7373,22 @@
       <c r="M25" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="N25" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P25" s="8" t="s">
+      <c r="N25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q25" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S25" s="11" t="s">
+      <c r="Q25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S25" s="8" t="s">
         <v>256</v>
       </c>
       <c r="T25" s="2"/>
@@ -7459,7 +7453,7 @@
       <c r="BM25" s="2"/>
       <c r="BN25" s="2"/>
       <c r="BO25" s="2"/>
-      <c r="BP25" s="8" t="s">
+      <c r="BP25" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BQ25" s="2"/>
@@ -7495,7 +7489,7 @@
       <c r="CU25" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="CV25" s="8" t="s">
+      <c r="CV25" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CW25" s="2"/>
@@ -7547,29 +7541,29 @@
       <c r="EQ25" s="2"/>
     </row>
     <row r="26" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="5" t="s">
         <v>253</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -7582,19 +7576,19 @@
       <c r="M26" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P26" s="8" t="s">
+      <c r="N26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q26" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R26" s="8" t="s">
+      <c r="Q26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R26" s="5" t="s">
         <v>257</v>
       </c>
       <c r="S26" s="2" t="s">
@@ -7662,7 +7656,7 @@
       <c r="BM26" s="2"/>
       <c r="BN26" s="2"/>
       <c r="BO26" s="2"/>
-      <c r="BP26" s="8" t="s">
+      <c r="BP26" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BQ26" s="2"/>
@@ -7698,7 +7692,7 @@
       <c r="CU26" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="CV26" s="8" t="s">
+      <c r="CV26" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CW26" s="2"/>
@@ -7750,29 +7744,29 @@
       <c r="EQ26" s="2"/>
     </row>
     <row r="27" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>378</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="5" t="s">
         <v>253</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -7785,19 +7779,19 @@
       <c r="M27" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="N27" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P27" s="8" t="s">
+      <c r="N27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q27" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R27" s="8" t="s">
+      <c r="Q27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>257</v>
       </c>
       <c r="S27" s="2" t="s">
@@ -7865,7 +7859,7 @@
       <c r="BM27" s="2"/>
       <c r="BN27" s="2"/>
       <c r="BO27" s="2"/>
-      <c r="BP27" s="8" t="s">
+      <c r="BP27" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BQ27" s="2"/>
@@ -7901,7 +7895,7 @@
       <c r="CU27" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="CV27" s="8" t="s">
+      <c r="CV27" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CW27" s="2"/>
@@ -7953,29 +7947,29 @@
       <c r="EQ27" s="2"/>
     </row>
     <row r="28" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>379</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="5" t="s">
         <v>253</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -7988,19 +7982,19 @@
       <c r="M28" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N28" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P28" s="8" t="s">
+      <c r="N28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P28" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q28" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R28" s="8" t="s">
+      <c r="Q28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R28" s="5" t="s">
         <v>257</v>
       </c>
       <c r="S28" s="2" t="s">
@@ -8068,7 +8062,7 @@
       <c r="BM28" s="2"/>
       <c r="BN28" s="2"/>
       <c r="BO28" s="2"/>
-      <c r="BP28" s="8" t="s">
+      <c r="BP28" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BQ28" s="2"/>
@@ -8104,7 +8098,7 @@
       <c r="CU28" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="CV28" s="8" t="s">
+      <c r="CV28" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CW28" s="2"/>
@@ -8156,29 +8150,29 @@
       <c r="EQ28" s="2"/>
     </row>
     <row r="29" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>380</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="5" t="s">
         <v>253</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -8191,19 +8185,19 @@
       <c r="M29" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N29" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P29" s="8" t="s">
+      <c r="N29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P29" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q29" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R29" s="8" t="s">
+      <c r="Q29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R29" s="5" t="s">
         <v>257</v>
       </c>
       <c r="S29" s="2" t="s">
@@ -8271,7 +8265,7 @@
       <c r="BM29" s="2"/>
       <c r="BN29" s="2"/>
       <c r="BO29" s="2"/>
-      <c r="BP29" s="8" t="s">
+      <c r="BP29" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BQ29" s="2"/>
@@ -8307,7 +8301,7 @@
       <c r="CU29" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="CV29" s="8" t="s">
+      <c r="CV29" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CW29" s="2"/>
@@ -8359,29 +8353,29 @@
       <c r="EQ29" s="2"/>
     </row>
     <row r="30" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>381</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="5" t="s">
         <v>253</v>
       </c>
       <c r="J30" s="2" t="s">
@@ -8394,19 +8388,19 @@
       <c r="M30" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P30" s="8" t="s">
+      <c r="N30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P30" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R30" s="8" t="s">
+      <c r="Q30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R30" s="5" t="s">
         <v>257</v>
       </c>
       <c r="S30" s="2" t="s">
@@ -8474,7 +8468,7 @@
       <c r="BM30" s="2"/>
       <c r="BN30" s="2"/>
       <c r="BO30" s="2"/>
-      <c r="BP30" s="8" t="s">
+      <c r="BP30" s="5" t="s">
         <v>256</v>
       </c>
       <c r="BQ30" s="2"/>
@@ -8510,7 +8504,7 @@
       <c r="CU30" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="CV30" s="8" t="s">
+      <c r="CV30" s="5" t="s">
         <v>256</v>
       </c>
       <c r="CW30" s="2"/>
@@ -8562,29 +8556,29 @@
       <c r="EQ30" s="2"/>
     </row>
     <row r="31" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>382</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="5" t="s">
         <v>253</v>
       </c>
       <c r="J31" s="2" t="s">
@@ -8599,19 +8593,19 @@
       <c r="M31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N31" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P31" s="8" t="s">
+      <c r="N31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P31" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q31" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R31" s="8" t="s">
+      <c r="Q31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R31" s="5" t="s">
         <v>257</v>
       </c>
       <c r="S31" s="2" t="s">
@@ -8715,7 +8709,7 @@
       <c r="CU31" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="CV31" s="8" t="s">
+      <c r="CV31" s="5" t="s">
         <v>136</v>
       </c>
       <c r="CW31" s="2"/>
@@ -8767,81 +8761,81 @@
       <c r="EQ31" s="2"/>
     </row>
     <row r="32" spans="1:147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="K32" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L32" s="8" t="s">
+      <c r="K32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N32" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P32" s="8" t="s">
+      <c r="N32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P32" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q32" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S32" s="8" t="s">
+      <c r="Q32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S32" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="W32" s="9" t="s">
+      <c r="V32" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="W32" s="6" t="s">
         <v>256</v>
       </c>
       <c r="X32" s="2"/>
-      <c r="Y32" s="9" t="s">
+      <c r="Y32" s="6" t="s">
         <v>256</v>
       </c>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="9" t="s">
+      <c r="AA32" s="6" t="s">
         <v>256</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
-      <c r="AE32" s="9" t="s">
+      <c r="AE32" s="6" t="s">
         <v>256</v>
       </c>
       <c r="AF32" s="2" t="s">
@@ -8854,10 +8848,10 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
-      <c r="AN32" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AO32" s="9" t="s">
+      <c r="AN32" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO32" s="6" t="s">
         <v>256</v>
       </c>
       <c r="AP32" s="2"/>
@@ -8871,13 +8865,13 @@
       <c r="AX32" s="2"/>
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
-      <c r="BA32" s="9" t="s">
+      <c r="BA32" s="6" t="s">
         <v>256</v>
       </c>
       <c r="BB32" s="2"/>
       <c r="BC32" s="2"/>
       <c r="BD32" s="2"/>
-      <c r="BE32" s="9" t="s">
+      <c r="BE32" s="6" t="s">
         <v>256</v>
       </c>
       <c r="BF32" s="2"/>
@@ -8886,7 +8880,7 @@
       <c r="BI32" s="2"/>
       <c r="BJ32" s="2"/>
       <c r="BK32" s="2"/>
-      <c r="BL32" s="9" t="s">
+      <c r="BL32" s="6" t="s">
         <v>256</v>
       </c>
       <c r="BM32" s="2"/>
@@ -8923,7 +8917,7 @@
       <c r="CR32" s="2"/>
       <c r="CS32" s="2"/>
       <c r="CT32" s="2"/>
-      <c r="CU32" s="9" t="s">
+      <c r="CU32" s="6" t="s">
         <v>256</v>
       </c>
       <c r="CV32" s="2"/>
@@ -8975,282 +8969,282 @@
       <c r="EP32" s="2"/>
       <c r="EQ32" s="2"/>
     </row>
-    <row r="33" spans="1:152" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:152" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="8" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L33" s="2" t="s">
+      <c r="K33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L33" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="N33" s="8" t="s">
+      <c r="N33" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="P33" s="8" t="s">
+      <c r="P33" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="Q33" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R33" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S33" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y33" s="2" t="s">
+      <c r="Q33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="V33" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y33" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AJ33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AO33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AP33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AQ33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="2"/>
-      <c r="AU33" s="2"/>
-      <c r="AV33" s="2" t="s">
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF33" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ33" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
-      <c r="AY33" s="2"/>
-      <c r="AZ33" s="2"/>
-      <c r="BA33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="2"/>
-      <c r="BD33" s="2"/>
-      <c r="BE33" s="2"/>
-      <c r="BF33" s="2"/>
-      <c r="BG33" s="2"/>
-      <c r="BH33" s="2"/>
-      <c r="BI33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="BJ33" s="2"/>
-      <c r="BK33" s="2"/>
-      <c r="BL33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM33" s="2"/>
-      <c r="BN33" s="2"/>
-      <c r="BO33" s="2"/>
-      <c r="BP33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="BQ33" s="2"/>
-      <c r="BR33" s="2"/>
-      <c r="BS33" s="2"/>
-      <c r="BT33" s="2"/>
-      <c r="BU33" s="2"/>
-      <c r="BV33" s="2"/>
-      <c r="BW33" s="2"/>
-      <c r="BX33" s="2"/>
-      <c r="BY33" s="2"/>
-      <c r="BZ33" s="2"/>
-      <c r="CA33" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="CB33" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="CC33" s="2"/>
-      <c r="CD33" s="2"/>
-      <c r="CE33" s="2"/>
-      <c r="CF33" s="2"/>
-      <c r="CG33" s="2"/>
-      <c r="CH33" s="2"/>
-      <c r="CI33" s="2"/>
-      <c r="CJ33" s="2"/>
-      <c r="CK33" s="2"/>
-      <c r="CL33" s="2"/>
-      <c r="CM33" s="2"/>
-      <c r="CN33" s="2"/>
-      <c r="CO33" s="2"/>
-      <c r="CP33" s="2"/>
-      <c r="CQ33" s="2"/>
-      <c r="CR33" s="2"/>
-      <c r="CS33" s="2" t="s">
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="10"/>
+      <c r="BA33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="10"/>
+      <c r="BD33" s="10"/>
+      <c r="BE33" s="10"/>
+      <c r="BF33" s="10"/>
+      <c r="BG33" s="10"/>
+      <c r="BH33" s="10"/>
+      <c r="BI33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="BJ33" s="10"/>
+      <c r="BK33" s="10"/>
+      <c r="BL33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM33" s="10"/>
+      <c r="BN33" s="10"/>
+      <c r="BO33" s="10"/>
+      <c r="BP33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="BQ33" s="10"/>
+      <c r="BR33" s="10"/>
+      <c r="BS33" s="10"/>
+      <c r="BT33" s="10"/>
+      <c r="BU33" s="10"/>
+      <c r="BV33" s="10"/>
+      <c r="BW33" s="10"/>
+      <c r="BX33" s="10"/>
+      <c r="BY33" s="10"/>
+      <c r="BZ33" s="10"/>
+      <c r="CA33" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="CB33" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="CC33" s="10"/>
+      <c r="CD33" s="10"/>
+      <c r="CE33" s="10"/>
+      <c r="CF33" s="10"/>
+      <c r="CG33" s="10"/>
+      <c r="CH33" s="10"/>
+      <c r="CI33" s="10"/>
+      <c r="CJ33" s="10"/>
+      <c r="CK33" s="10"/>
+      <c r="CL33" s="10"/>
+      <c r="CM33" s="10"/>
+      <c r="CN33" s="10"/>
+      <c r="CO33" s="10"/>
+      <c r="CP33" s="10"/>
+      <c r="CQ33" s="10"/>
+      <c r="CR33" s="10"/>
+      <c r="CS33" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="CT33" s="2"/>
-      <c r="CU33" s="2" t="s">
+      <c r="CT33" s="10"/>
+      <c r="CU33" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="CV33" s="2" t="s">
+      <c r="CV33" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="CW33" s="2"/>
-      <c r="CX33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="CY33" s="2" t="s">
+      <c r="CW33" s="10"/>
+      <c r="CX33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="CY33" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="CZ33" s="2"/>
-      <c r="DA33" s="2"/>
-      <c r="DB33" s="2"/>
-      <c r="DC33" s="2"/>
-      <c r="DD33" s="2"/>
-      <c r="DE33" s="2"/>
-      <c r="DF33" s="2"/>
-      <c r="DG33" s="2"/>
-      <c r="DH33" s="2"/>
-      <c r="DI33" s="2" t="s">
+      <c r="CZ33" s="10"/>
+      <c r="DA33" s="10"/>
+      <c r="DB33" s="10"/>
+      <c r="DC33" s="10"/>
+      <c r="DD33" s="10"/>
+      <c r="DE33" s="10"/>
+      <c r="DF33" s="10"/>
+      <c r="DG33" s="10"/>
+      <c r="DH33" s="10"/>
+      <c r="DI33" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="DJ33" s="2"/>
-      <c r="DK33" s="2"/>
-      <c r="DL33" s="2"/>
-      <c r="DM33" s="2"/>
-      <c r="DN33" s="2"/>
-      <c r="DO33" s="2"/>
-      <c r="DP33" s="2"/>
-      <c r="DQ33" s="2"/>
-      <c r="DR33" s="2"/>
-      <c r="DS33" s="2"/>
-      <c r="DT33" s="2"/>
-      <c r="DU33" s="2"/>
-      <c r="DV33" s="2"/>
-      <c r="DW33" s="2"/>
-      <c r="DX33" s="2" t="s">
+      <c r="DJ33" s="10"/>
+      <c r="DK33" s="10"/>
+      <c r="DL33" s="10"/>
+      <c r="DM33" s="10"/>
+      <c r="DN33" s="10"/>
+      <c r="DO33" s="10"/>
+      <c r="DP33" s="10"/>
+      <c r="DQ33" s="10"/>
+      <c r="DR33" s="10"/>
+      <c r="DS33" s="10"/>
+      <c r="DT33" s="10"/>
+      <c r="DU33" s="10"/>
+      <c r="DV33" s="10"/>
+      <c r="DW33" s="10"/>
+      <c r="DX33" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="DY33" s="2"/>
-      <c r="DZ33" s="2"/>
-      <c r="EA33" s="2"/>
-      <c r="EB33" s="2"/>
-      <c r="EC33" s="2"/>
-      <c r="ED33" s="2"/>
-      <c r="EE33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="EF33" s="2"/>
-      <c r="EG33" s="2"/>
-      <c r="EH33" s="2"/>
-      <c r="EI33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="EJ33" s="2"/>
-      <c r="EK33" s="2"/>
-      <c r="EL33" s="2"/>
-      <c r="EM33" s="2"/>
-      <c r="EN33" s="2"/>
-      <c r="EO33" s="2"/>
-      <c r="EP33" s="2"/>
-      <c r="EQ33" s="2"/>
+      <c r="DY33" s="10"/>
+      <c r="DZ33" s="10"/>
+      <c r="EA33" s="10"/>
+      <c r="EB33" s="10"/>
+      <c r="EC33" s="10"/>
+      <c r="ED33" s="10"/>
+      <c r="EE33" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="EF33" s="10"/>
+      <c r="EG33" s="10"/>
+      <c r="EH33" s="10"/>
+      <c r="EI33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="EJ33" s="10"/>
+      <c r="EK33" s="10"/>
+      <c r="EL33" s="10"/>
+      <c r="EM33" s="10"/>
+      <c r="EN33" s="10"/>
+      <c r="EO33" s="10"/>
+      <c r="EP33" s="10"/>
+      <c r="EQ33" s="10"/>
     </row>
     <row r="34" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>401</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>402</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L34" s="8" t="s">
+      <c r="K34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>410</v>
       </c>
       <c r="M34" s="2" t="s">
@@ -9271,7 +9265,7 @@
       <c r="R34" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S34" s="8" t="s">
+      <c r="S34" s="5" t="s">
         <v>256</v>
       </c>
       <c r="T34" s="2"/>
@@ -9285,13 +9279,13 @@
         <v>256</v>
       </c>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="9" t="s">
+      <c r="AA34" s="6" t="s">
         <v>256</v>
       </c>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
-      <c r="AE34" s="9" t="s">
+      <c r="AE34" s="6" t="s">
         <v>256</v>
       </c>
       <c r="AF34" s="2"/>
@@ -9335,7 +9329,7 @@
       <c r="BF34" s="2"/>
       <c r="BG34" s="2"/>
       <c r="BH34" s="2"/>
-      <c r="BI34" s="9" t="s">
+      <c r="BI34" s="6" t="s">
         <v>256</v>
       </c>
       <c r="BJ34" s="2" t="s">
@@ -9442,10 +9436,10 @@
       <c r="EQ34" s="2"/>
     </row>
     <row r="35" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>414</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -9454,25 +9448,25 @@
       <c r="D35" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="5" t="s">
         <v>253</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="5" t="s">
         <v>136</v>
       </c>
       <c r="L35" s="2" t="s">
@@ -9481,22 +9475,22 @@
       <c r="M35" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="N35" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P35" s="8" t="s">
+      <c r="N35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q35" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R35" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="S35" s="8" t="s">
+      <c r="Q35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S35" s="5" t="s">
         <v>256</v>
       </c>
       <c r="AP35" s="3"/>
@@ -9529,555 +9523,555 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:152" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:152" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L36" s="3" t="s">
+      <c r="K36" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L36" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="M36" s="12" t="s">
+      <c r="M36" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="P36" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="Q36" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AL36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AV36" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="BA36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="BE36" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="BL36" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="BP36" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="BT36" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="BU36" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="CS36" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="CU36" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="CV36" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="EE36" s="3" t="s">
+      <c r="Q36" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV36" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="BE36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL36" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="BP36" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="BT36" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="BU36" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="CS36" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="CU36" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="CV36" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="EE36" s="12" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:152" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L37" s="1" t="s">
+      <c r="K37" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L37" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P37" s="8" t="s">
+      <c r="M37" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P37" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="Q37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="V37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="CU37" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="CV37" s="2" t="s">
+      <c r="Q37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="CU37" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="CV37" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:152" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L38" s="1" t="s">
+      <c r="K38" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L38" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P38" s="8" t="s">
+      <c r="M38" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P38" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="Q38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S38" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="V38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="CU38" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="CV38" s="2" t="s">
+      <c r="Q38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="V38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="CU38" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="CV38" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:152" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L39" s="1" t="s">
+      <c r="K39" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L39" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P39" s="8" t="s">
+      <c r="M39" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P39" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="Q39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S39" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="V39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="CU39" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="CV39" s="2" t="s">
+      <c r="Q39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="V39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="CU39" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="CV39" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:152" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P40" s="8" t="s">
+      <c r="K40" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P40" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="Q40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="V40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="CU40" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="CV40" s="2" t="s">
+      <c r="Q40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="V40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="CU40" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="CV40" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:152" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L41" s="1" t="s">
+      <c r="K41" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L41" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P41" s="8" t="s">
+      <c r="M41" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P41" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="Q41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="V41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="CU41" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="CV41" s="2" t="s">
+      <c r="Q41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="S41" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="V41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="CU41" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="CV41" s="10" t="s">
         <v>136</v>
       </c>
     </row>
